--- a/D.V/Revenue-Figures 2.xlsx
+++ b/D.V/Revenue-Figures 2.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\neeraj\python-prg\py\D.V\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{061F599C-B19A-4870-A46E-AF2B7213751E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45C839A1-61A2-43FA-90E8-AA2831F9C8DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1980" windowWidth="16200" windowHeight="9270" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="21840" windowHeight="13020" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Jan-Dec" sheetId="1" r:id="rId1"/>
@@ -1114,8 +1114,8 @@
   <dimension ref="A1:Q1000"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <pane ySplit="3" topLeftCell="A193" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="L4" sqref="L4:L200"/>
+      <pane ySplit="3" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="P3" sqref="P3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1205,7 +1205,7 @@
       </c>
       <c r="P2" s="2">
         <f>M201</f>
-        <v>0</v>
+        <v>37533159.874062501</v>
       </c>
     </row>
     <row r="3" spans="1:16" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1225,7 +1225,10 @@
       <c r="O3" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P3" s="3"/>
+      <c r="P3" s="3">
+        <f>(L201-I201)/L201</f>
+        <v>0.33333333333333326</v>
+      </c>
     </row>
     <row r="4" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
@@ -1270,7 +1273,10 @@
         <f>K4*J4</f>
         <v>1550215.0349999999</v>
       </c>
-      <c r="M4" s="2"/>
+      <c r="M4" s="2">
+        <f>L4-I4</f>
+        <v>516738.34499999997</v>
+      </c>
     </row>
     <row r="5" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
@@ -1315,7 +1321,10 @@
         <f t="shared" ref="L5:L68" si="5">K5*J5</f>
         <v>47471.462812500002</v>
       </c>
-      <c r="M5" s="2"/>
+      <c r="M5" s="2">
+        <f t="shared" ref="M5:M68" si="6">L5-I5</f>
+        <v>15823.820937500001</v>
+      </c>
     </row>
     <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
@@ -1360,7 +1369,10 @@
         <f t="shared" si="5"/>
         <v>58195.25250000001</v>
       </c>
-      <c r="M6" s="2"/>
+      <c r="M6" s="2">
+        <f t="shared" si="6"/>
+        <v>19398.41750000001</v>
+      </c>
     </row>
     <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
@@ -1405,7 +1417,10 @@
         <f t="shared" si="5"/>
         <v>55284.083437500005</v>
       </c>
-      <c r="M7" s="2"/>
+      <c r="M7" s="2">
+        <f t="shared" si="6"/>
+        <v>18428.027812500004</v>
+      </c>
     </row>
     <row r="8" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
@@ -1450,7 +1465,10 @@
         <f t="shared" si="5"/>
         <v>332834.90624999994</v>
       </c>
-      <c r="M8" s="2"/>
+      <c r="M8" s="2">
+        <f t="shared" si="6"/>
+        <v>110944.96874999994</v>
+      </c>
     </row>
     <row r="9" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -1495,7 +1513,10 @@
         <f t="shared" si="5"/>
         <v>279577.10249999998</v>
       </c>
-      <c r="M9" s="2"/>
+      <c r="M9" s="2">
+        <f t="shared" si="6"/>
+        <v>93192.367499999993</v>
+      </c>
       <c r="N9" s="3"/>
     </row>
     <row r="10" spans="1:16" x14ac:dyDescent="0.25">
@@ -1541,7 +1562,10 @@
         <f t="shared" si="5"/>
         <v>419096.40281250002</v>
       </c>
-      <c r="M10" s="2"/>
+      <c r="M10" s="2">
+        <f t="shared" si="6"/>
+        <v>139698.80093750003</v>
+      </c>
     </row>
     <row r="11" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -1586,7 +1610,10 @@
         <f t="shared" si="5"/>
         <v>1099354.5225</v>
       </c>
-      <c r="M11" s="2"/>
+      <c r="M11" s="2">
+        <f t="shared" si="6"/>
+        <v>366451.50749999995</v>
+      </c>
     </row>
     <row r="12" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -1631,7 +1658,10 @@
         <f t="shared" si="5"/>
         <v>1204322.9625000001</v>
       </c>
-      <c r="M12" s="2"/>
+      <c r="M12" s="2">
+        <f t="shared" si="6"/>
+        <v>401440.98750000005</v>
+      </c>
     </row>
     <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -1676,7 +1706,10 @@
         <f t="shared" si="5"/>
         <v>1400855.76</v>
       </c>
-      <c r="M13" s="2"/>
+      <c r="M13" s="2">
+        <f t="shared" si="6"/>
+        <v>466951.92000000004</v>
+      </c>
     </row>
     <row r="14" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
@@ -1721,7 +1754,10 @@
         <f t="shared" si="5"/>
         <v>680018.42812499986</v>
       </c>
-      <c r="M14" s="2"/>
+      <c r="M14" s="2">
+        <f t="shared" si="6"/>
+        <v>226672.8093749999</v>
+      </c>
     </row>
     <row r="15" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
@@ -1766,7 +1802,10 @@
         <f t="shared" si="5"/>
         <v>793175.33156249998</v>
       </c>
-      <c r="M15" s="2"/>
+      <c r="M15" s="2">
+        <f t="shared" si="6"/>
+        <v>264391.77718749992</v>
+      </c>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
@@ -1811,7 +1850,10 @@
         <f t="shared" si="5"/>
         <v>742919.92968749988</v>
       </c>
-      <c r="M16" s="2"/>
+      <c r="M16" s="2">
+        <f t="shared" si="6"/>
+        <v>247639.97656249988</v>
+      </c>
     </row>
     <row r="17" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
@@ -1856,7 +1898,10 @@
         <f t="shared" si="5"/>
         <v>838209.18281249993</v>
       </c>
-      <c r="M17" s="2"/>
+      <c r="M17" s="2">
+        <f t="shared" si="6"/>
+        <v>279403.06093749998</v>
+      </c>
     </row>
     <row r="18" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A18" s="1" t="s">
@@ -1901,7 +1946,10 @@
         <f t="shared" si="5"/>
         <v>3057135.7584374999</v>
       </c>
-      <c r="M18" s="2"/>
+      <c r="M18" s="2">
+        <f t="shared" si="6"/>
+        <v>1019045.2528124999</v>
+      </c>
     </row>
     <row r="19" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A19" s="1" t="s">
@@ -1946,7 +1994,10 @@
         <f t="shared" si="5"/>
         <v>3252780.9384374996</v>
       </c>
-      <c r="M19" s="2"/>
+      <c r="M19" s="2">
+        <f t="shared" si="6"/>
+        <v>1084260.3128124997</v>
+      </c>
     </row>
     <row r="20" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
@@ -1991,7 +2042,10 @@
         <f t="shared" si="5"/>
         <v>3012540.1659374996</v>
       </c>
-      <c r="M20" s="2"/>
+      <c r="M20" s="2">
+        <f t="shared" si="6"/>
+        <v>1004180.0553124996</v>
+      </c>
     </row>
     <row r="21" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
@@ -2036,7 +2090,10 @@
         <f t="shared" si="5"/>
         <v>2864008.0715624997</v>
       </c>
-      <c r="M21" s="2"/>
+      <c r="M21" s="2">
+        <f t="shared" si="6"/>
+        <v>954669.35718749976</v>
+      </c>
     </row>
     <row r="22" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
@@ -2081,7 +2138,10 @@
         <f t="shared" si="5"/>
         <v>1980018.3374999999</v>
       </c>
-      <c r="M22" s="2"/>
+      <c r="M22" s="2">
+        <f t="shared" si="6"/>
+        <v>660006.11250000005</v>
+      </c>
       <c r="O22" s="5"/>
     </row>
     <row r="23" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2127,7 +2187,10 @@
         <f t="shared" si="5"/>
         <v>1906896.766875</v>
       </c>
-      <c r="M23" s="2"/>
+      <c r="M23" s="2">
+        <f t="shared" si="6"/>
+        <v>635632.25562499999</v>
+      </c>
     </row>
     <row r="24" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
@@ -2172,7 +2235,10 @@
         <f t="shared" si="5"/>
         <v>2226576.2062499998</v>
       </c>
-      <c r="M24" s="2"/>
+      <c r="M24" s="2">
+        <f t="shared" si="6"/>
+        <v>742192.06874999963</v>
+      </c>
     </row>
     <row r="25" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
@@ -2217,7 +2283,10 @@
         <f t="shared" si="5"/>
         <v>2008757.6025</v>
       </c>
-      <c r="M25" s="2"/>
+      <c r="M25" s="2">
+        <f t="shared" si="6"/>
+        <v>669585.86749999993</v>
+      </c>
     </row>
     <row r="26" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
@@ -2262,7 +2331,10 @@
         <f t="shared" si="5"/>
         <v>324996.21187500004</v>
       </c>
-      <c r="M26" s="2"/>
+      <c r="M26" s="2">
+        <f t="shared" si="6"/>
+        <v>108332.07062500005</v>
+      </c>
     </row>
     <row r="27" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
@@ -2307,7 +2379,10 @@
         <f t="shared" si="5"/>
         <v>73590.247499999998</v>
       </c>
-      <c r="M27" s="2"/>
+      <c r="M27" s="2">
+        <f t="shared" si="6"/>
+        <v>24530.082500000004</v>
+      </c>
     </row>
     <row r="28" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
@@ -2352,7 +2427,10 @@
         <f t="shared" si="5"/>
         <v>159865.87125</v>
       </c>
-      <c r="M28" s="2"/>
+      <c r="M28" s="2">
+        <f t="shared" si="6"/>
+        <v>53288.623749999999</v>
+      </c>
     </row>
     <row r="29" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
@@ -2397,7 +2475,10 @@
         <f t="shared" si="5"/>
         <v>231056.63437500002</v>
       </c>
-      <c r="M29" s="2"/>
+      <c r="M29" s="2">
+        <f t="shared" si="6"/>
+        <v>77018.878125000017</v>
+      </c>
     </row>
     <row r="30" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
@@ -2442,7 +2523,10 @@
         <f t="shared" si="5"/>
         <v>98383.972500000003</v>
       </c>
-      <c r="M30" s="2"/>
+      <c r="M30" s="2">
+        <f t="shared" si="6"/>
+        <v>32794.657500000001</v>
+      </c>
     </row>
     <row r="31" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="1" t="s">
@@ -2487,7 +2571,10 @@
         <f t="shared" si="5"/>
         <v>228770.09999999998</v>
       </c>
-      <c r="M31" s="2"/>
+      <c r="M31" s="2">
+        <f t="shared" si="6"/>
+        <v>76256.699999999983</v>
+      </c>
     </row>
     <row r="32" spans="1:15" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="1" t="s">
@@ -2532,7 +2619,10 @@
         <f t="shared" si="5"/>
         <v>233989.99500000002</v>
       </c>
-      <c r="M32" s="2"/>
+      <c r="M32" s="2">
+        <f t="shared" si="6"/>
+        <v>77996.665000000037</v>
+      </c>
     </row>
     <row r="33" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="1" t="s">
@@ -2577,7 +2667,10 @@
         <f t="shared" si="5"/>
         <v>128247.09749999997</v>
       </c>
-      <c r="M33" s="2"/>
+      <c r="M33" s="2">
+        <f t="shared" si="6"/>
+        <v>42749.032499999972</v>
+      </c>
     </row>
     <row r="34" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
@@ -2622,7 +2715,10 @@
         <f t="shared" si="5"/>
         <v>364706.60812500003</v>
       </c>
-      <c r="M34" s="2"/>
+      <c r="M34" s="2">
+        <f t="shared" si="6"/>
+        <v>121568.86937500004</v>
+      </c>
     </row>
     <row r="35" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="1" t="s">
@@ -2667,7 +2763,10 @@
         <f t="shared" si="5"/>
         <v>333910.79062500002</v>
       </c>
-      <c r="M35" s="2"/>
+      <c r="M35" s="2">
+        <f t="shared" si="6"/>
+        <v>111303.59687500002</v>
+      </c>
     </row>
     <row r="36" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="1" t="s">
@@ -2712,7 +2811,10 @@
         <f t="shared" si="5"/>
         <v>305141.01375000004</v>
       </c>
-      <c r="M36" s="2"/>
+      <c r="M36" s="2">
+        <f t="shared" si="6"/>
+        <v>101713.67125000004</v>
+      </c>
     </row>
     <row r="37" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="1" t="s">
@@ -2757,7 +2859,10 @@
         <f t="shared" si="5"/>
         <v>1176435.7087499998</v>
       </c>
-      <c r="M37" s="2"/>
+      <c r="M37" s="2">
+        <f t="shared" si="6"/>
+        <v>392145.23624999973</v>
+      </c>
     </row>
     <row r="38" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="1" t="s">
@@ -2802,7 +2907,10 @@
         <f t="shared" si="5"/>
         <v>1405340.5753124999</v>
       </c>
-      <c r="M38" s="2"/>
+      <c r="M38" s="2">
+        <f t="shared" si="6"/>
+        <v>468446.85843749985</v>
+      </c>
     </row>
     <row r="39" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="1" t="s">
@@ -2847,7 +2955,10 @@
         <f t="shared" si="5"/>
         <v>1372183.5684374999</v>
       </c>
-      <c r="M39" s="2"/>
+      <c r="M39" s="2">
+        <f t="shared" si="6"/>
+        <v>457394.5228124999</v>
+      </c>
     </row>
     <row r="40" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
@@ -2892,7 +3003,10 @@
         <f t="shared" si="5"/>
         <v>1096828.32375</v>
       </c>
-      <c r="M40" s="2"/>
+      <c r="M40" s="2">
+        <f t="shared" si="6"/>
+        <v>365609.44125000003</v>
+      </c>
     </row>
     <row r="41" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="1" t="s">
@@ -2937,7 +3051,10 @@
         <f t="shared" si="5"/>
         <v>1057998.8474999999</v>
       </c>
-      <c r="M41" s="2"/>
+      <c r="M41" s="2">
+        <f t="shared" si="6"/>
+        <v>352666.28249999997</v>
+      </c>
     </row>
     <row r="42" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="1" t="s">
@@ -2982,7 +3099,10 @@
         <f t="shared" si="5"/>
         <v>63202.3828125</v>
       </c>
-      <c r="M42" s="2"/>
+      <c r="M42" s="2">
+        <f t="shared" si="6"/>
+        <v>21067.4609375</v>
+      </c>
     </row>
     <row r="43" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="1" t="s">
@@ -3027,7 +3147,10 @@
         <f t="shared" si="5"/>
         <v>81330.328125</v>
       </c>
-      <c r="M43" s="2"/>
+      <c r="M43" s="2">
+        <f t="shared" si="6"/>
+        <v>27110.109375</v>
+      </c>
     </row>
     <row r="44" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="1" t="s">
@@ -3072,7 +3195,10 @@
         <f t="shared" si="5"/>
         <v>76602.2109375</v>
       </c>
-      <c r="M44" s="2"/>
+      <c r="M44" s="2">
+        <f t="shared" si="6"/>
+        <v>25534.0703125</v>
+      </c>
     </row>
     <row r="45" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="1" t="s">
@@ -3117,7 +3243,10 @@
         <f t="shared" si="5"/>
         <v>82223.9296875</v>
       </c>
-      <c r="M45" s="2"/>
+      <c r="M45" s="2">
+        <f t="shared" si="6"/>
+        <v>27407.9765625</v>
+      </c>
     </row>
     <row r="46" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="1" t="s">
@@ -3162,7 +3291,10 @@
         <f t="shared" si="5"/>
         <v>78233.254687499997</v>
       </c>
-      <c r="M46" s="2"/>
+      <c r="M46" s="2">
+        <f t="shared" si="6"/>
+        <v>26077.751562499994</v>
+      </c>
     </row>
     <row r="47" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="1" t="s">
@@ -3207,7 +3339,10 @@
         <f t="shared" si="5"/>
         <v>80014.213124999995</v>
       </c>
-      <c r="M47" s="2"/>
+      <c r="M47" s="2">
+        <f t="shared" si="6"/>
+        <v>26671.404374999998</v>
+      </c>
     </row>
     <row r="48" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="1" t="s">
@@ -3252,7 +3387,10 @@
         <f t="shared" si="5"/>
         <v>86283.377812499995</v>
       </c>
-      <c r="M48" s="2"/>
+      <c r="M48" s="2">
+        <f t="shared" si="6"/>
+        <v>28761.125937499994</v>
+      </c>
     </row>
     <row r="49" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="1" t="s">
@@ -3297,7 +3435,10 @@
         <f t="shared" si="5"/>
         <v>51082.631249999999</v>
       </c>
-      <c r="M49" s="2"/>
+      <c r="M49" s="2">
+        <f t="shared" si="6"/>
+        <v>17027.543749999997</v>
+      </c>
     </row>
     <row r="50" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
@@ -3342,7 +3483,10 @@
         <f t="shared" si="5"/>
         <v>41326.098750000005</v>
       </c>
-      <c r="M50" s="2"/>
+      <c r="M50" s="2">
+        <f t="shared" si="6"/>
+        <v>13775.366250000006</v>
+      </c>
     </row>
     <row r="51" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="1" t="s">
@@ -3387,7 +3531,10 @@
         <f t="shared" si="5"/>
         <v>50940.580312499995</v>
       </c>
-      <c r="M51" s="2"/>
+      <c r="M51" s="2">
+        <f t="shared" si="6"/>
+        <v>16980.193437499998</v>
+      </c>
     </row>
     <row r="52" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="1" t="s">
@@ -3432,7 +3579,10 @@
         <f t="shared" si="5"/>
         <v>46000.811249999999</v>
       </c>
-      <c r="M52" s="2"/>
+      <c r="M52" s="2">
+        <f t="shared" si="6"/>
+        <v>15333.603749999998</v>
+      </c>
     </row>
     <row r="53" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
@@ -3477,7 +3627,10 @@
         <f t="shared" si="5"/>
         <v>51893.157187500001</v>
       </c>
-      <c r="M53" s="2"/>
+      <c r="M53" s="2">
+        <f t="shared" si="6"/>
+        <v>17297.7190625</v>
+      </c>
     </row>
     <row r="54" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
@@ -3522,7 +3675,10 @@
         <f t="shared" si="5"/>
         <v>50194.383750000001</v>
       </c>
-      <c r="M54" s="2"/>
+      <c r="M54" s="2">
+        <f t="shared" si="6"/>
+        <v>16731.46125</v>
+      </c>
     </row>
     <row r="55" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A55" s="1" t="s">
@@ -3567,7 +3723,10 @@
         <f t="shared" si="5"/>
         <v>65500.152187500003</v>
       </c>
-      <c r="M55" s="2"/>
+      <c r="M55" s="2">
+        <f t="shared" si="6"/>
+        <v>21833.384062500001</v>
+      </c>
     </row>
     <row r="56" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A56" s="1" t="s">
@@ -3612,7 +3771,10 @@
         <f t="shared" si="5"/>
         <v>63487.026562500003</v>
       </c>
-      <c r="M56" s="2"/>
+      <c r="M56" s="2">
+        <f t="shared" si="6"/>
+        <v>21162.342187500006</v>
+      </c>
     </row>
     <row r="57" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A57" s="1" t="s">
@@ -3657,7 +3819,10 @@
         <f t="shared" si="5"/>
         <v>57685.078125</v>
       </c>
-      <c r="M57" s="2"/>
+      <c r="M57" s="2">
+        <f t="shared" si="6"/>
+        <v>19228.359375</v>
+      </c>
     </row>
     <row r="58" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="1" t="s">
@@ -3702,7 +3867,10 @@
         <f t="shared" si="5"/>
         <v>77599.717499999999</v>
       </c>
-      <c r="M58" s="2"/>
+      <c r="M58" s="2">
+        <f t="shared" si="6"/>
+        <v>25866.572499999995</v>
+      </c>
     </row>
     <row r="59" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A59" s="1" t="s">
@@ -3747,7 +3915,10 @@
         <f t="shared" si="5"/>
         <v>66300.048750000002</v>
       </c>
-      <c r="M59" s="2"/>
+      <c r="M59" s="2">
+        <f t="shared" si="6"/>
+        <v>22100.016250000001</v>
+      </c>
     </row>
     <row r="60" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="1" t="s">
@@ -3792,7 +3963,10 @@
         <f t="shared" si="5"/>
         <v>71742.073124999995</v>
       </c>
-      <c r="M60" s="2"/>
+      <c r="M60" s="2">
+        <f t="shared" si="6"/>
+        <v>23914.024374999994</v>
+      </c>
     </row>
     <row r="61" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A61" s="1" t="s">
@@ -3837,7 +4011,10 @@
         <f t="shared" si="5"/>
         <v>167158.62</v>
       </c>
-      <c r="M61" s="2"/>
+      <c r="M61" s="2">
+        <f t="shared" si="6"/>
+        <v>55719.539999999994</v>
+      </c>
     </row>
     <row r="62" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="1" t="s">
@@ -3882,7 +4059,10 @@
         <f t="shared" si="5"/>
         <v>241448.39624999999</v>
       </c>
-      <c r="M62" s="2"/>
+      <c r="M62" s="2">
+        <f t="shared" si="6"/>
+        <v>80482.798749999987</v>
+      </c>
     </row>
     <row r="63" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A63" s="1" t="s">
@@ -3927,7 +4107,10 @@
         <f t="shared" si="5"/>
         <v>314679.03375</v>
       </c>
-      <c r="M63" s="2"/>
+      <c r="M63" s="2">
+        <f t="shared" si="6"/>
+        <v>104893.01125000001</v>
+      </c>
     </row>
     <row r="64" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A64" s="1" t="s">
@@ -3972,7 +4155,10 @@
         <f t="shared" si="5"/>
         <v>543736.29843749991</v>
       </c>
-      <c r="M64" s="2"/>
+      <c r="M64" s="2">
+        <f t="shared" si="6"/>
+        <v>181245.43281249993</v>
+      </c>
     </row>
     <row r="65" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="1" t="s">
@@ -4017,7 +4203,10 @@
         <f t="shared" si="5"/>
         <v>537135.51937500003</v>
       </c>
-      <c r="M65" s="2"/>
+      <c r="M65" s="2">
+        <f t="shared" si="6"/>
+        <v>179045.17312500003</v>
+      </c>
     </row>
     <row r="66" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A66" s="1" t="s">
@@ -4062,7 +4251,10 @@
         <f t="shared" si="5"/>
         <v>566475.78749999986</v>
       </c>
-      <c r="M66" s="2"/>
+      <c r="M66" s="2">
+        <f t="shared" si="6"/>
+        <v>188825.2624999999</v>
+      </c>
     </row>
     <row r="67" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A67" s="1" t="s">
@@ -4107,7 +4299,10 @@
         <f t="shared" si="5"/>
         <v>587715.22031249991</v>
       </c>
-      <c r="M67" s="2"/>
+      <c r="M67" s="2">
+        <f t="shared" si="6"/>
+        <v>195905.07343749993</v>
+      </c>
     </row>
     <row r="68" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A68" s="1" t="s">
@@ -4152,7 +4347,10 @@
         <f t="shared" si="5"/>
         <v>609261.48281249986</v>
       </c>
-      <c r="M68" s="2"/>
+      <c r="M68" s="2">
+        <f t="shared" si="6"/>
+        <v>203087.1609374999</v>
+      </c>
     </row>
     <row r="69" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A69" s="1" t="s">
@@ -4174,19 +4372,19 @@
         <v>3935.5</v>
       </c>
       <c r="G69" s="2">
-        <f t="shared" ref="G69:G132" si="6">PRODUCT(E69:F69)</f>
+        <f t="shared" ref="G69:G132" si="7">PRODUCT(E69:F69)</f>
         <v>854623.34124999994</v>
       </c>
       <c r="H69" s="2">
-        <f t="shared" ref="H69:H132" si="7">PRODUCT(F69,$P$1)</f>
+        <f t="shared" ref="H69:H132" si="8">PRODUCT(F69,$P$1)</f>
         <v>19677.5</v>
       </c>
       <c r="I69" s="2">
-        <f t="shared" ref="I69:I132" si="8">SUM(G69+H69)</f>
+        <f t="shared" ref="I69:I132" si="9">SUM(G69+H69)</f>
         <v>874300.84124999994</v>
       </c>
       <c r="J69" s="2">
-        <f t="shared" ref="J69:J132" si="9" xml:space="preserve"> (E69 + $P$1) * 1.5</f>
+        <f t="shared" ref="J69:J132" si="10" xml:space="preserve"> (E69 + $P$1) * 1.5</f>
         <v>333.23624999999998</v>
       </c>
       <c r="K69" s="4">
@@ -4194,10 +4392,13 @@
         <v>3935.5</v>
       </c>
       <c r="L69" s="2">
-        <f t="shared" ref="L69:L132" si="10">K69*J69</f>
+        <f t="shared" ref="L69:L132" si="11">K69*J69</f>
         <v>1311451.2618749999</v>
       </c>
-      <c r="M69" s="2"/>
+      <c r="M69" s="2">
+        <f t="shared" ref="M69:M132" si="12">L69-I69</f>
+        <v>437150.42062499991</v>
+      </c>
     </row>
     <row r="70" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A70" s="1" t="s">
@@ -4219,19 +4420,19 @@
         <v>4949</v>
       </c>
       <c r="G70" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>14884.117499999998</v>
       </c>
       <c r="H70" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24745</v>
       </c>
       <c r="I70" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>39629.1175</v>
       </c>
       <c r="J70" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.01125</v>
       </c>
       <c r="K70" s="4">
@@ -4239,10 +4440,13 @@
         <v>4949</v>
       </c>
       <c r="L70" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>59443.676250000004</v>
       </c>
-      <c r="M70" s="2"/>
+      <c r="M70" s="2">
+        <f t="shared" si="12"/>
+        <v>19814.558750000004</v>
+      </c>
     </row>
     <row r="71" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
@@ -4264,19 +4468,19 @@
         <v>4394.25</v>
       </c>
       <c r="G71" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13215.706875</v>
       </c>
       <c r="H71" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21971.25</v>
       </c>
       <c r="I71" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35186.956875000003</v>
       </c>
       <c r="J71" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.01125</v>
       </c>
       <c r="K71" s="4">
@@ -4284,10 +4488,13 @@
         <v>4394.25</v>
       </c>
       <c r="L71" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>52780.435312500005</v>
       </c>
-      <c r="M71" s="2"/>
+      <c r="M71" s="2">
+        <f t="shared" si="12"/>
+        <v>17593.478437500002</v>
+      </c>
     </row>
     <row r="72" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A72" s="1" t="s">
@@ -4309,19 +4516,19 @@
         <v>3811.75</v>
       </c>
       <c r="G72" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3239.9874999999997</v>
       </c>
       <c r="H72" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19058.75</v>
       </c>
       <c r="I72" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>22298.737499999999</v>
       </c>
       <c r="J72" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.7749999999999986</v>
       </c>
       <c r="K72" s="4">
@@ -4329,10 +4536,13 @@
         <v>3811.75</v>
       </c>
       <c r="L72" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>33448.106249999997</v>
       </c>
-      <c r="M72" s="2"/>
+      <c r="M72" s="2">
+        <f t="shared" si="12"/>
+        <v>11149.368749999998</v>
+      </c>
     </row>
     <row r="73" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A73" s="1" t="s">
@@ -4354,19 +4564,19 @@
         <v>4125.25</v>
       </c>
       <c r="G73" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3506.4625000000001</v>
       </c>
       <c r="H73" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20626.25</v>
       </c>
       <c r="I73" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>24132.712500000001</v>
       </c>
       <c r="J73" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.7749999999999986</v>
       </c>
       <c r="K73" s="4">
@@ -4374,10 +4584,13 @@
         <v>4125.25</v>
       </c>
       <c r="L73" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>36199.068749999991</v>
       </c>
-      <c r="M73" s="2"/>
+      <c r="M73" s="2">
+        <f t="shared" si="12"/>
+        <v>12066.35624999999</v>
+      </c>
     </row>
     <row r="74" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A74" s="1" t="s">
@@ -4399,19 +4612,19 @@
         <v>4326.75</v>
       </c>
       <c r="G74" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15013.8225</v>
       </c>
       <c r="H74" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21633.75</v>
       </c>
       <c r="I74" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>36647.572500000002</v>
       </c>
       <c r="J74" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.705000000000002</v>
       </c>
       <c r="K74" s="4">
@@ -4419,10 +4632,13 @@
         <v>4326.75</v>
       </c>
       <c r="L74" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>54971.358750000007</v>
       </c>
-      <c r="M74" s="2"/>
+      <c r="M74" s="2">
+        <f t="shared" si="12"/>
+        <v>18323.786250000005</v>
+      </c>
     </row>
     <row r="75" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A75" s="1" t="s">
@@ -4444,19 +4660,19 @@
         <v>4072.25</v>
       </c>
       <c r="G75" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5813.1368750000001</v>
       </c>
       <c r="H75" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20361.25</v>
       </c>
       <c r="I75" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26174.386875</v>
       </c>
       <c r="J75" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.6412499999999994</v>
       </c>
       <c r="K75" s="4">
@@ -4464,10 +4680,13 @@
         <v>4072.25</v>
       </c>
       <c r="L75" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>39261.580312499995</v>
       </c>
-      <c r="M75" s="2"/>
+      <c r="M75" s="2">
+        <f t="shared" si="12"/>
+        <v>13087.193437499995</v>
+      </c>
     </row>
     <row r="76" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A76" s="1" t="s">
@@ -4489,19 +4708,19 @@
         <v>4452</v>
       </c>
       <c r="G76" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>35304.36</v>
       </c>
       <c r="H76" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22260</v>
       </c>
       <c r="I76" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>57564.36</v>
       </c>
       <c r="J76" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19.395</v>
       </c>
       <c r="K76" s="4">
@@ -4509,10 +4728,13 @@
         <v>4452</v>
       </c>
       <c r="L76" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>86346.54</v>
       </c>
-      <c r="M76" s="2"/>
+      <c r="M76" s="2">
+        <f t="shared" si="12"/>
+        <v>28782.179999999993</v>
+      </c>
     </row>
     <row r="77" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A77" s="1" t="s">
@@ -4534,19 +4756,19 @@
         <v>4171</v>
       </c>
       <c r="G77" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>33076.03</v>
       </c>
       <c r="H77" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20855</v>
       </c>
       <c r="I77" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>53931.03</v>
       </c>
       <c r="J77" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19.395</v>
       </c>
       <c r="K77" s="4">
@@ -4554,10 +4776,13 @@
         <v>4171</v>
       </c>
       <c r="L77" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>80896.544999999998</v>
       </c>
-      <c r="M77" s="2"/>
+      <c r="M77" s="2">
+        <f t="shared" si="12"/>
+        <v>26965.514999999999</v>
+      </c>
     </row>
     <row r="78" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A78" s="1" t="s">
@@ -4579,19 +4804,19 @@
         <v>4753.75</v>
       </c>
       <c r="G78" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>37697.237499999996</v>
       </c>
       <c r="H78" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23768.75</v>
       </c>
       <c r="I78" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>61465.987499999996</v>
       </c>
       <c r="J78" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19.395</v>
       </c>
       <c r="K78" s="4">
@@ -4599,10 +4824,13 @@
         <v>4753.75</v>
       </c>
       <c r="L78" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>92198.981249999997</v>
       </c>
-      <c r="M78" s="2"/>
+      <c r="M78" s="2">
+        <f t="shared" si="12"/>
+        <v>30732.993750000001</v>
+      </c>
     </row>
     <row r="79" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A79" s="1" t="s">
@@ -4624,19 +4852,19 @@
         <v>3819.5</v>
       </c>
       <c r="G79" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>30288.634999999998</v>
       </c>
       <c r="H79" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19097.5</v>
       </c>
       <c r="I79" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>49386.134999999995</v>
       </c>
       <c r="J79" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>19.395</v>
       </c>
       <c r="K79" s="4">
@@ -4644,10 +4872,13 @@
         <v>3819.5</v>
       </c>
       <c r="L79" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>74079.202499999999</v>
       </c>
-      <c r="M79" s="2"/>
+      <c r="M79" s="2">
+        <f t="shared" si="12"/>
+        <v>24693.067500000005</v>
+      </c>
     </row>
     <row r="80" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A80" s="1" t="s">
@@ -4669,19 +4900,19 @@
         <v>4528</v>
       </c>
       <c r="G80" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>706186.88</v>
       </c>
       <c r="H80" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22640</v>
       </c>
       <c r="I80" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>728826.88</v>
       </c>
       <c r="J80" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>241.44</v>
       </c>
       <c r="K80" s="4">
@@ -4689,10 +4920,13 @@
         <v>4528</v>
       </c>
       <c r="L80" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1093240.3200000001</v>
       </c>
-      <c r="M80" s="2"/>
+      <c r="M80" s="2">
+        <f t="shared" si="12"/>
+        <v>364413.44000000006</v>
+      </c>
     </row>
     <row r="81" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A81" s="1" t="s">
@@ -4714,19 +4948,19 @@
         <v>3996.25</v>
       </c>
       <c r="G81" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>706147.36562499998</v>
       </c>
       <c r="H81" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19981.25</v>
       </c>
       <c r="I81" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>726128.61562499998</v>
       </c>
       <c r="J81" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>272.55374999999998</v>
       </c>
       <c r="K81" s="4">
@@ -4734,10 +4968,13 @@
         <v>3996.25</v>
       </c>
       <c r="L81" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1089192.9234374999</v>
       </c>
-      <c r="M81" s="2"/>
+      <c r="M81" s="2">
+        <f t="shared" si="12"/>
+        <v>363064.30781249993</v>
+      </c>
     </row>
     <row r="82" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A82" s="1" t="s">
@@ -4759,19 +4996,19 @@
         <v>4064.25</v>
       </c>
       <c r="G82" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>718163.135625</v>
       </c>
       <c r="H82" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20321.25</v>
       </c>
       <c r="I82" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>738484.385625</v>
       </c>
       <c r="J82" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>272.55374999999998</v>
       </c>
       <c r="K82" s="4">
@@ -4779,10 +5016,13 @@
         <v>4064.25</v>
       </c>
       <c r="L82" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1107726.5784374999</v>
       </c>
-      <c r="M82" s="2"/>
+      <c r="M82" s="2">
+        <f t="shared" si="12"/>
+        <v>369242.19281249994</v>
+      </c>
     </row>
     <row r="83" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A83" s="1" t="s">
@@ -4804,19 +5044,19 @@
         <v>4599.5</v>
       </c>
       <c r="G83" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>717338.02</v>
       </c>
       <c r="H83" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22997.5</v>
       </c>
       <c r="I83" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>740335.52</v>
       </c>
       <c r="J83" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>241.44</v>
       </c>
       <c r="K83" s="4">
@@ -4824,10 +5064,13 @@
         <v>4599.5</v>
       </c>
       <c r="L83" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1110503.28</v>
       </c>
-      <c r="M83" s="2"/>
+      <c r="M83" s="2">
+        <f t="shared" si="12"/>
+        <v>370167.76</v>
+      </c>
     </row>
     <row r="84" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A84" s="1" t="s">
@@ -4849,19 +5092,19 @@
         <v>4392.25</v>
       </c>
       <c r="G84" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>685015.31</v>
       </c>
       <c r="H84" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21961.25</v>
       </c>
       <c r="I84" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>706976.56</v>
       </c>
       <c r="J84" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>241.44</v>
       </c>
       <c r="K84" s="4">
@@ -4869,10 +5112,13 @@
         <v>4392.25</v>
       </c>
       <c r="L84" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1060464.8400000001</v>
       </c>
-      <c r="M84" s="2"/>
+      <c r="M84" s="2">
+        <f t="shared" si="12"/>
+        <v>353488.28</v>
+      </c>
     </row>
     <row r="85" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A85" s="1" t="s">
@@ -4894,19 +5140,19 @@
         <v>3811.25</v>
       </c>
       <c r="G85" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2068832.253125</v>
       </c>
       <c r="H85" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19056.25</v>
       </c>
       <c r="I85" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2087888.503125</v>
       </c>
       <c r="J85" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>821.73374999999999</v>
       </c>
       <c r="K85" s="4">
@@ -4914,10 +5160,13 @@
         <v>3811.25</v>
       </c>
       <c r="L85" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3131832.7546874997</v>
       </c>
-      <c r="M85" s="2"/>
+      <c r="M85" s="2">
+        <f t="shared" si="12"/>
+        <v>1043944.2515624997</v>
+      </c>
     </row>
     <row r="86" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A86" s="1" t="s">
@@ -4939,19 +5188,19 @@
         <v>4471</v>
       </c>
       <c r="G86" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2426959.3975</v>
       </c>
       <c r="H86" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22355</v>
       </c>
       <c r="I86" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2449314.3975</v>
       </c>
       <c r="J86" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>821.73374999999999</v>
       </c>
       <c r="K86" s="4">
@@ -4959,10 +5208,13 @@
         <v>4471</v>
       </c>
       <c r="L86" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3673971.5962499999</v>
       </c>
-      <c r="M86" s="2"/>
+      <c r="M86" s="2">
+        <f t="shared" si="12"/>
+        <v>1224657.19875</v>
+      </c>
     </row>
     <row r="87" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A87" s="1" t="s">
@@ -4984,19 +5236,19 @@
         <v>4793.75</v>
       </c>
       <c r="G87" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2602155.359375</v>
       </c>
       <c r="H87" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23968.75</v>
       </c>
       <c r="I87" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2626124.109375</v>
       </c>
       <c r="J87" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>821.73374999999999</v>
       </c>
       <c r="K87" s="4">
@@ -5004,10 +5256,13 @@
         <v>4793.75</v>
       </c>
       <c r="L87" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3939186.1640625</v>
       </c>
-      <c r="M87" s="2"/>
+      <c r="M87" s="2">
+        <f t="shared" si="12"/>
+        <v>1313062.0546875</v>
+      </c>
     </row>
     <row r="88" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A88" s="1" t="s">
@@ -5029,19 +5284,19 @@
         <v>3850.25</v>
       </c>
       <c r="G88" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1840563.8843750001</v>
       </c>
       <c r="H88" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19251.25</v>
       </c>
       <c r="I88" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1859815.1343750001</v>
       </c>
       <c r="J88" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>724.55625000000009</v>
       </c>
       <c r="K88" s="4">
@@ -5049,10 +5304,13 @@
         <v>3850.25</v>
       </c>
       <c r="L88" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2789722.7015625006</v>
       </c>
-      <c r="M88" s="2"/>
+      <c r="M88" s="2">
+        <f t="shared" si="12"/>
+        <v>929907.56718750042</v>
+      </c>
     </row>
     <row r="89" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A89" s="1" t="s">
@@ -5074,19 +5332,19 @@
         <v>4690.75</v>
       </c>
       <c r="G89" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2242354.4031250002</v>
       </c>
       <c r="H89" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23453.75</v>
       </c>
       <c r="I89" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2265808.1531250002</v>
       </c>
       <c r="J89" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>724.55625000000009</v>
       </c>
       <c r="K89" s="4">
@@ -5094,10 +5352,13 @@
         <v>4690.75</v>
       </c>
       <c r="L89" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3398712.2296875003</v>
       </c>
-      <c r="M89" s="2"/>
+      <c r="M89" s="2">
+        <f t="shared" si="12"/>
+        <v>1132904.0765625001</v>
+      </c>
     </row>
     <row r="90" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A90" s="1" t="s">
@@ -5119,19 +5380,19 @@
         <v>4288.5</v>
       </c>
       <c r="G90" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2050063.8187500001</v>
       </c>
       <c r="H90" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21442.5</v>
       </c>
       <c r="I90" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>2071506.3187500001</v>
       </c>
       <c r="J90" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>724.55625000000009</v>
       </c>
       <c r="K90" s="4">
@@ -5139,10 +5400,13 @@
         <v>4288.5</v>
       </c>
       <c r="L90" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>3107259.4781250004</v>
       </c>
-      <c r="M90" s="2"/>
+      <c r="M90" s="2">
+        <f t="shared" si="12"/>
+        <v>1035753.1593750003</v>
+      </c>
     </row>
     <row r="91" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A91" s="1" t="s">
@@ -5164,19 +5428,19 @@
         <v>4256.75</v>
       </c>
       <c r="G91" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1616277.3331249999</v>
       </c>
       <c r="H91" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21283.75</v>
       </c>
       <c r="I91" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1637561.0831249999</v>
       </c>
       <c r="J91" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>577.04624999999999</v>
       </c>
       <c r="K91" s="4">
@@ -5184,10 +5448,13 @@
         <v>4256.75</v>
       </c>
       <c r="L91" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2456341.6246874998</v>
       </c>
-      <c r="M91" s="2"/>
+      <c r="M91" s="2">
+        <f t="shared" si="12"/>
+        <v>818780.54156249994</v>
+      </c>
     </row>
     <row r="92" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A92" s="1" t="s">
@@ -5209,19 +5476,19 @@
         <v>3995</v>
       </c>
       <c r="G92" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1516891.5125</v>
       </c>
       <c r="H92" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19975</v>
       </c>
       <c r="I92" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1536866.5125</v>
       </c>
       <c r="J92" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>577.04624999999999</v>
       </c>
       <c r="K92" s="4">
@@ -5229,10 +5496,13 @@
         <v>3995</v>
       </c>
       <c r="L92" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2305299.7687499998</v>
       </c>
-      <c r="M92" s="2"/>
+      <c r="M92" s="2">
+        <f t="shared" si="12"/>
+        <v>768433.25624999986</v>
+      </c>
     </row>
     <row r="93" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A93" s="1" t="s">
@@ -5254,19 +5524,19 @@
         <v>4632.5</v>
       </c>
       <c r="G93" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1758948.66875</v>
       </c>
       <c r="H93" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23162.5</v>
       </c>
       <c r="I93" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>1782111.16875</v>
       </c>
       <c r="J93" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>577.04624999999999</v>
       </c>
       <c r="K93" s="4">
@@ -5274,10 +5544,13 @@
         <v>4632.5</v>
       </c>
       <c r="L93" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>2673166.7531249998</v>
       </c>
-      <c r="M93" s="2"/>
+      <c r="M93" s="2">
+        <f t="shared" si="12"/>
+        <v>891055.58437499986</v>
+      </c>
     </row>
     <row r="94" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A94" s="1" t="s">
@@ -5299,19 +5572,19 @@
         <v>4917.5</v>
       </c>
       <c r="G94" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>744570.96875</v>
       </c>
       <c r="H94" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24587.5</v>
       </c>
       <c r="I94" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>769158.46875</v>
       </c>
       <c r="J94" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>234.61874999999998</v>
       </c>
       <c r="K94" s="4">
@@ -5319,10 +5592,13 @@
         <v>4917.5</v>
       </c>
       <c r="L94" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1153737.703125</v>
       </c>
-      <c r="M94" s="2"/>
+      <c r="M94" s="2">
+        <f t="shared" si="12"/>
+        <v>384579.234375</v>
+      </c>
     </row>
     <row r="95" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A95" s="1" t="s">
@@ -5344,19 +5620,19 @@
         <v>4232.5</v>
       </c>
       <c r="G95" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>754527.77500000002</v>
       </c>
       <c r="H95" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21162.5</v>
       </c>
       <c r="I95" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>775690.27500000002</v>
       </c>
       <c r="J95" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>274.90500000000003</v>
       </c>
       <c r="K95" s="4">
@@ -5364,10 +5640,13 @@
         <v>4232.5</v>
       </c>
       <c r="L95" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>1163535.4125000001</v>
       </c>
-      <c r="M95" s="2"/>
+      <c r="M95" s="2">
+        <f t="shared" si="12"/>
+        <v>387845.13750000007</v>
+      </c>
     </row>
     <row r="96" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A96" s="1" t="s">
@@ -5389,19 +5668,19 @@
         <v>3892</v>
       </c>
       <c r="G96" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>589297.44999999995</v>
       </c>
       <c r="H96" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19460</v>
       </c>
       <c r="I96" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>608757.44999999995</v>
       </c>
       <c r="J96" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>234.61874999999998</v>
       </c>
       <c r="K96" s="4">
@@ -5409,10 +5688,13 @@
         <v>3892</v>
       </c>
       <c r="L96" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>913136.17499999993</v>
       </c>
-      <c r="M96" s="2"/>
+      <c r="M96" s="2">
+        <f t="shared" si="12"/>
+        <v>304378.72499999998</v>
+      </c>
     </row>
     <row r="97" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A97" s="1" t="s">
@@ -5434,19 +5716,19 @@
         <v>3840</v>
       </c>
       <c r="G97" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>63177.600000000006</v>
       </c>
       <c r="H97" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19200</v>
       </c>
       <c r="I97" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>82377.600000000006</v>
       </c>
       <c r="J97" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>32.178750000000001</v>
       </c>
       <c r="K97" s="4">
@@ -5454,10 +5736,13 @@
         <v>3840</v>
       </c>
       <c r="L97" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>123566.40000000001</v>
       </c>
-      <c r="M97" s="2"/>
+      <c r="M97" s="2">
+        <f t="shared" si="12"/>
+        <v>41188.800000000003</v>
+      </c>
     </row>
     <row r="98" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A98" s="1" t="s">
@@ -5479,19 +5764,19 @@
         <v>3881.75</v>
       </c>
       <c r="G98" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>75616.490000000005</v>
       </c>
       <c r="H98" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19408.75</v>
       </c>
       <c r="I98" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>95025.24</v>
       </c>
       <c r="J98" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>36.72</v>
       </c>
       <c r="K98" s="4">
@@ -5499,10 +5784,13 @@
         <v>3881.75</v>
       </c>
       <c r="L98" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>142537.85999999999</v>
       </c>
-      <c r="M98" s="2"/>
+      <c r="M98" s="2">
+        <f t="shared" si="12"/>
+        <v>47512.619999999981</v>
+      </c>
     </row>
     <row r="99" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A99" s="1" t="s">
@@ -5524,19 +5812,19 @@
         <v>4603.75</v>
       </c>
       <c r="G99" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>117269.02187500001</v>
       </c>
       <c r="H99" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23018.75</v>
       </c>
       <c r="I99" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>140287.77187500001</v>
       </c>
       <c r="J99" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>45.708750000000002</v>
       </c>
       <c r="K99" s="4">
@@ -5544,10 +5832,13 @@
         <v>4603.75</v>
       </c>
       <c r="L99" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>210431.65781250002</v>
       </c>
-      <c r="M99" s="2"/>
+      <c r="M99" s="2">
+        <f t="shared" si="12"/>
+        <v>70143.885937500017</v>
+      </c>
     </row>
     <row r="100" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A100" s="1" t="s">
@@ -5569,19 +5860,19 @@
         <v>3969.75</v>
       </c>
       <c r="G100" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>15065.20125</v>
       </c>
       <c r="H100" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19848.75</v>
       </c>
       <c r="I100" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>34913.951249999998</v>
       </c>
       <c r="J100" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>13.192499999999999</v>
       </c>
       <c r="K100" s="4">
@@ -5589,10 +5880,13 @@
         <v>3969.75</v>
       </c>
       <c r="L100" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>52370.926874999997</v>
       </c>
-      <c r="M100" s="2"/>
+      <c r="M100" s="2">
+        <f t="shared" si="12"/>
+        <v>17456.975624999999</v>
+      </c>
     </row>
     <row r="101" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A101" s="1" t="s">
@@ -5614,19 +5908,19 @@
         <v>4169.5</v>
       </c>
       <c r="G101" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>47344.672500000001</v>
       </c>
       <c r="H101" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20847.5</v>
       </c>
       <c r="I101" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>68192.172500000001</v>
       </c>
       <c r="J101" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.532499999999999</v>
       </c>
       <c r="K101" s="4">
@@ -5634,10 +5928,13 @@
         <v>4169.5</v>
       </c>
       <c r="L101" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>102288.25874999999</v>
       </c>
-      <c r="M101" s="2"/>
+      <c r="M101" s="2">
+        <f t="shared" si="12"/>
+        <v>34096.086249999993</v>
+      </c>
     </row>
     <row r="102" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A102" s="1" t="s">
@@ -5659,19 +5956,19 @@
         <v>4679.5</v>
       </c>
       <c r="G102" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>64787.677500000005</v>
       </c>
       <c r="H102" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23397.5</v>
       </c>
       <c r="I102" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>88185.177500000005</v>
       </c>
       <c r="J102" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>28.267499999999998</v>
       </c>
       <c r="K102" s="4">
@@ -5679,10 +5976,13 @@
         <v>4679.5</v>
       </c>
       <c r="L102" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>132277.76624999999</v>
       </c>
-      <c r="M102" s="2"/>
+      <c r="M102" s="2">
+        <f t="shared" si="12"/>
+        <v>44092.588749999981</v>
+      </c>
     </row>
     <row r="103" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A103" s="1" t="s">
@@ -5704,19 +6004,19 @@
         <v>3920.75</v>
       </c>
       <c r="G103" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>17623.771250000002</v>
       </c>
       <c r="H103" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19603.75</v>
       </c>
       <c r="I103" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>37227.521250000005</v>
       </c>
       <c r="J103" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14.242500000000001</v>
       </c>
       <c r="K103" s="4">
@@ -5724,10 +6024,13 @@
         <v>3920.75</v>
       </c>
       <c r="L103" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>55841.281875000008</v>
       </c>
-      <c r="M103" s="2"/>
+      <c r="M103" s="2">
+        <f t="shared" si="12"/>
+        <v>18613.760625000003</v>
+      </c>
     </row>
     <row r="104" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A104" s="1" t="s">
@@ -5749,19 +6052,19 @@
         <v>4634.25</v>
       </c>
       <c r="G104" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22916.366250000003</v>
       </c>
       <c r="H104" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23171.25</v>
       </c>
       <c r="I104" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>46087.616250000006</v>
       </c>
       <c r="J104" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14.9175</v>
       </c>
       <c r="K104" s="4">
@@ -5769,10 +6072,13 @@
         <v>4634.25</v>
       </c>
       <c r="L104" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>69131.424375000002</v>
       </c>
-      <c r="M104" s="2"/>
+      <c r="M104" s="2">
+        <f t="shared" si="12"/>
+        <v>23043.808124999996</v>
+      </c>
     </row>
     <row r="105" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A105" s="1" t="s">
@@ -5794,19 +6100,19 @@
         <v>4634.25</v>
       </c>
       <c r="G105" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>61867.237499999996</v>
       </c>
       <c r="H105" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23171.25</v>
       </c>
       <c r="I105" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>85038.487499999988</v>
       </c>
       <c r="J105" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>27.525000000000002</v>
       </c>
       <c r="K105" s="4">
@@ -5814,10 +6120,13 @@
         <v>4634.25</v>
       </c>
       <c r="L105" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>127557.73125000001</v>
       </c>
-      <c r="M105" s="2"/>
+      <c r="M105" s="2">
+        <f t="shared" si="12"/>
+        <v>42519.243750000023</v>
+      </c>
     </row>
     <row r="106" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A106" s="1" t="s">
@@ -5839,19 +6148,19 @@
         <v>4039</v>
       </c>
       <c r="G106" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>18155.305</v>
       </c>
       <c r="H106" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20195</v>
       </c>
       <c r="I106" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>38350.305</v>
       </c>
       <c r="J106" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14.242500000000001</v>
       </c>
       <c r="K106" s="4">
@@ -5859,10 +6168,13 @@
         <v>4039</v>
       </c>
       <c r="L106" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>57525.457500000004</v>
       </c>
-      <c r="M106" s="2"/>
+      <c r="M106" s="2">
+        <f t="shared" si="12"/>
+        <v>19175.152500000004</v>
+      </c>
     </row>
     <row r="107" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A107" s="1" t="s">
@@ -5884,19 +6196,19 @@
         <v>4594.25</v>
       </c>
       <c r="G107" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22718.56625</v>
       </c>
       <c r="H107" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22971.25</v>
       </c>
       <c r="I107" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>45689.816250000003</v>
       </c>
       <c r="J107" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14.9175</v>
       </c>
       <c r="K107" s="4">
@@ -5904,10 +6216,13 @@
         <v>4594.25</v>
       </c>
       <c r="L107" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>68534.724375000005</v>
       </c>
-      <c r="M107" s="2"/>
+      <c r="M107" s="2">
+        <f t="shared" si="12"/>
+        <v>22844.908125000002</v>
+      </c>
     </row>
     <row r="108" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A108" s="1" t="s">
@@ -5929,19 +6244,19 @@
         <v>4053.25</v>
       </c>
       <c r="G108" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>304115.34750000003</v>
       </c>
       <c r="H108" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20266.25</v>
       </c>
       <c r="I108" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>324381.59750000003</v>
       </c>
       <c r="J108" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>120.045</v>
       </c>
       <c r="K108" s="4">
@@ -5949,10 +6264,13 @@
         <v>4053.25</v>
       </c>
       <c r="L108" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>486572.39624999999</v>
       </c>
-      <c r="M108" s="2"/>
+      <c r="M108" s="2">
+        <f t="shared" si="12"/>
+        <v>162190.79874999996</v>
+      </c>
     </row>
     <row r="109" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A109" s="1" t="s">
@@ -5974,19 +6292,19 @@
         <v>3962</v>
       </c>
       <c r="G109" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>297268.86</v>
       </c>
       <c r="H109" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19810</v>
       </c>
       <c r="I109" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>317078.86</v>
       </c>
       <c r="J109" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>120.045</v>
       </c>
       <c r="K109" s="4">
@@ -5994,10 +6312,13 @@
         <v>3962</v>
       </c>
       <c r="L109" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>475618.29</v>
       </c>
-      <c r="M109" s="2"/>
+      <c r="M109" s="2">
+        <f t="shared" si="12"/>
+        <v>158539.43</v>
+      </c>
     </row>
     <row r="110" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A110" s="1" t="s">
@@ -6019,19 +6340,19 @@
         <v>4528.5</v>
       </c>
       <c r="G110" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>58372.365000000005</v>
       </c>
       <c r="H110" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22642.5</v>
       </c>
       <c r="I110" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>81014.865000000005</v>
       </c>
       <c r="J110" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>26.835000000000001</v>
       </c>
       <c r="K110" s="4">
@@ -6039,10 +6360,13 @@
         <v>4528.5</v>
       </c>
       <c r="L110" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>121522.2975</v>
       </c>
-      <c r="M110" s="2"/>
+      <c r="M110" s="2">
+        <f t="shared" si="12"/>
+        <v>40507.432499999995</v>
+      </c>
     </row>
     <row r="111" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A111" s="1" t="s">
@@ -6064,19 +6388,19 @@
         <v>4688.75</v>
       </c>
       <c r="G111" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>12085.253125000001</v>
       </c>
       <c r="H111" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23443.75</v>
       </c>
       <c r="I111" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>35529.003125000003</v>
       </c>
       <c r="J111" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.366250000000001</v>
       </c>
       <c r="K111" s="4">
@@ -6084,10 +6408,13 @@
         <v>4688.75</v>
       </c>
       <c r="L111" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>53293.504687500004</v>
       </c>
-      <c r="M111" s="2"/>
+      <c r="M111" s="2">
+        <f t="shared" si="12"/>
+        <v>17764.501562500001</v>
+      </c>
     </row>
     <row r="112" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A112" s="1" t="s">
@@ -6109,19 +6436,19 @@
         <v>4327.25</v>
       </c>
       <c r="G112" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>8924.953125</v>
       </c>
       <c r="H112" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21636.25</v>
       </c>
       <c r="I112" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>30561.203125</v>
       </c>
       <c r="J112" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.59375</v>
       </c>
       <c r="K112" s="4">
@@ -6129,10 +6456,13 @@
         <v>4327.25</v>
       </c>
       <c r="L112" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>45841.8046875</v>
       </c>
-      <c r="M112" s="2"/>
+      <c r="M112" s="2">
+        <f t="shared" si="12"/>
+        <v>15280.6015625</v>
+      </c>
     </row>
     <row r="113" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A113" s="1" t="s">
@@ -6154,19 +6484,19 @@
         <v>3832</v>
       </c>
       <c r="G113" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>9876.9800000000014</v>
       </c>
       <c r="H113" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19160</v>
       </c>
       <c r="I113" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>29036.980000000003</v>
       </c>
       <c r="J113" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>11.366250000000001</v>
       </c>
       <c r="K113" s="4">
@@ -6174,10 +6504,13 @@
         <v>3832</v>
       </c>
       <c r="L113" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>43555.47</v>
       </c>
-      <c r="M113" s="2"/>
+      <c r="M113" s="2">
+        <f t="shared" si="12"/>
+        <v>14518.489999999998</v>
+      </c>
     </row>
     <row r="114" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A114" s="1" t="s">
@@ -6199,19 +6532,19 @@
         <v>4076.25</v>
       </c>
       <c r="G114" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>5879.9906249999995</v>
       </c>
       <c r="H114" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20381.25</v>
       </c>
       <c r="I114" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26261.240624999999</v>
       </c>
       <c r="J114" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>9.6637500000000003</v>
       </c>
       <c r="K114" s="4">
@@ -6219,10 +6552,13 @@
         <v>4076.25</v>
       </c>
       <c r="L114" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>39391.860937500001</v>
       </c>
-      <c r="M114" s="2"/>
+      <c r="M114" s="2">
+        <f t="shared" si="12"/>
+        <v>13130.620312500003</v>
+      </c>
     </row>
     <row r="115" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A115" s="1" t="s">
@@ -6244,19 +6580,19 @@
         <v>3838</v>
       </c>
       <c r="G115" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>13845.584999999999</v>
       </c>
       <c r="H115" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19190</v>
       </c>
       <c r="I115" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>33035.584999999999</v>
       </c>
       <c r="J115" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>12.911249999999999</v>
       </c>
       <c r="K115" s="4">
@@ -6264,10 +6600,13 @@
         <v>3838</v>
       </c>
       <c r="L115" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>49553.377499999995</v>
       </c>
-      <c r="M115" s="2"/>
+      <c r="M115" s="2">
+        <f t="shared" si="12"/>
+        <v>16517.792499999996</v>
+      </c>
     </row>
     <row r="116" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A116" s="1" t="s">
@@ -6289,19 +6628,19 @@
         <v>4785</v>
       </c>
       <c r="G116" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22202.399999999998</v>
       </c>
       <c r="H116" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23925</v>
       </c>
       <c r="I116" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>46127.399999999994</v>
       </c>
       <c r="J116" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>14.46</v>
       </c>
       <c r="K116" s="4">
@@ -6309,10 +6648,13 @@
         <v>4785</v>
       </c>
       <c r="L116" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>69191.100000000006</v>
       </c>
-      <c r="M116" s="2"/>
+      <c r="M116" s="2">
+        <f t="shared" si="12"/>
+        <v>23063.700000000012</v>
+      </c>
     </row>
     <row r="117" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A117" s="1" t="s">
@@ -6334,19 +6676,19 @@
         <v>4902</v>
       </c>
       <c r="G117" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>45490.559999999998</v>
       </c>
       <c r="H117" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24510</v>
       </c>
       <c r="I117" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>70000.56</v>
       </c>
       <c r="J117" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.419999999999998</v>
       </c>
       <c r="K117" s="4">
@@ -6354,10 +6696,13 @@
         <v>4902</v>
       </c>
       <c r="L117" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>105000.84</v>
       </c>
-      <c r="M117" s="2"/>
+      <c r="M117" s="2">
+        <f t="shared" si="12"/>
+        <v>35000.28</v>
+      </c>
     </row>
     <row r="118" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A118" s="1" t="s">
@@ -6379,19 +6724,19 @@
         <v>4316.5</v>
       </c>
       <c r="G118" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>40057.119999999995</v>
       </c>
       <c r="H118" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21582.5</v>
       </c>
       <c r="I118" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>61639.619999999995</v>
       </c>
       <c r="J118" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.419999999999998</v>
       </c>
       <c r="K118" s="4">
@@ -6399,10 +6744,13 @@
         <v>4316.5</v>
       </c>
       <c r="L118" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>92459.43</v>
       </c>
-      <c r="M118" s="2"/>
+      <c r="M118" s="2">
+        <f t="shared" si="12"/>
+        <v>30819.809999999998</v>
+      </c>
     </row>
     <row r="119" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A119" s="1" t="s">
@@ -6424,19 +6772,19 @@
         <v>4661.75</v>
       </c>
       <c r="G119" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>43261.039999999994</v>
       </c>
       <c r="H119" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23308.75</v>
       </c>
       <c r="I119" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>66569.789999999994</v>
       </c>
       <c r="J119" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>21.419999999999998</v>
       </c>
       <c r="K119" s="4">
@@ -6444,10 +6792,13 @@
         <v>4661.75</v>
       </c>
       <c r="L119" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>99854.684999999998</v>
       </c>
-      <c r="M119" s="2"/>
+      <c r="M119" s="2">
+        <f t="shared" si="12"/>
+        <v>33284.895000000004</v>
+      </c>
     </row>
     <row r="120" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A120" s="1" t="s">
@@ -6469,19 +6820,19 @@
         <v>3794.25</v>
       </c>
       <c r="G120" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>22528.359375</v>
       </c>
       <c r="H120" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18971.25</v>
       </c>
       <c r="I120" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>41499.609375</v>
       </c>
       <c r="J120" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16.40625</v>
       </c>
       <c r="K120" s="4">
@@ -6489,10 +6840,13 @@
         <v>3794.25</v>
       </c>
       <c r="L120" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>62249.4140625</v>
       </c>
-      <c r="M120" s="2"/>
+      <c r="M120" s="2">
+        <f t="shared" si="12"/>
+        <v>20749.8046875</v>
+      </c>
     </row>
     <row r="121" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A121" s="1" t="s">
@@ -6514,19 +6868,19 @@
         <v>4813</v>
       </c>
       <c r="G121" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>28577.1875</v>
       </c>
       <c r="H121" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24065</v>
       </c>
       <c r="I121" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>52642.1875</v>
       </c>
       <c r="J121" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16.40625</v>
       </c>
       <c r="K121" s="4">
@@ -6534,10 +6888,13 @@
         <v>4813</v>
       </c>
       <c r="L121" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>78963.28125</v>
       </c>
-      <c r="M121" s="2"/>
+      <c r="M121" s="2">
+        <f t="shared" si="12"/>
+        <v>26321.09375</v>
+      </c>
     </row>
     <row r="122" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A122" s="1" t="s">
@@ -6559,19 +6916,19 @@
         <v>4655.75</v>
       </c>
       <c r="G122" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>27643.515625</v>
       </c>
       <c r="H122" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23278.75</v>
       </c>
       <c r="I122" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>50922.265625</v>
       </c>
       <c r="J122" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>16.40625</v>
       </c>
       <c r="K122" s="4">
@@ -6579,10 +6936,13 @@
         <v>4655.75</v>
       </c>
       <c r="L122" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>76383.3984375</v>
       </c>
-      <c r="M122" s="2"/>
+      <c r="M122" s="2">
+        <f t="shared" si="12"/>
+        <v>25461.1328125</v>
+      </c>
     </row>
     <row r="123" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A123" s="1" t="s">
@@ -6604,19 +6964,19 @@
         <v>3845.5</v>
       </c>
       <c r="G123" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>1797.77125</v>
       </c>
       <c r="H123" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19227.5</v>
       </c>
       <c r="I123" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21025.271250000002</v>
       </c>
       <c r="J123" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.2012499999999999</v>
       </c>
       <c r="K123" s="4">
@@ -6624,10 +6984,13 @@
         <v>3845.5</v>
       </c>
       <c r="L123" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31537.906875000001</v>
       </c>
-      <c r="M123" s="2"/>
+      <c r="M123" s="2">
+        <f t="shared" si="12"/>
+        <v>10512.635624999999</v>
+      </c>
     </row>
     <row r="124" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A124" s="1" t="s">
@@ -6649,19 +7012,19 @@
         <v>4382.75</v>
       </c>
       <c r="G124" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4097.8712500000001</v>
       </c>
       <c r="H124" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>21913.75</v>
       </c>
       <c r="I124" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26011.62125</v>
       </c>
       <c r="J124" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.9024999999999999</v>
       </c>
       <c r="K124" s="4">
@@ -6669,10 +7032,13 @@
         <v>4382.75</v>
       </c>
       <c r="L124" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>39017.431875000002</v>
       </c>
-      <c r="M124" s="2"/>
+      <c r="M124" s="2">
+        <f t="shared" si="12"/>
+        <v>13005.810625000002</v>
+      </c>
     </row>
     <row r="125" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A125" s="1" t="s">
@@ -6694,19 +7060,19 @@
         <v>3761.25</v>
       </c>
       <c r="G125" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3159.45</v>
       </c>
       <c r="H125" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>18806.25</v>
       </c>
       <c r="I125" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>21965.7</v>
       </c>
       <c r="J125" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.76</v>
       </c>
       <c r="K125" s="4">
@@ -6714,10 +7080,13 @@
         <v>3761.25</v>
       </c>
       <c r="L125" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>32948.549999999996</v>
       </c>
-      <c r="M125" s="2"/>
+      <c r="M125" s="2">
+        <f t="shared" si="12"/>
+        <v>10982.849999999995</v>
+      </c>
     </row>
     <row r="126" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A126" s="1" t="s">
@@ -6739,19 +7108,19 @@
         <v>3963</v>
       </c>
       <c r="G126" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>852.04499999999996</v>
       </c>
       <c r="H126" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19815</v>
       </c>
       <c r="I126" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>20667.044999999998</v>
       </c>
       <c r="J126" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>7.8224999999999998</v>
       </c>
       <c r="K126" s="4">
@@ -6759,10 +7128,13 @@
         <v>3963</v>
       </c>
       <c r="L126" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>31000.567499999997</v>
       </c>
-      <c r="M126" s="2"/>
+      <c r="M126" s="2">
+        <f t="shared" si="12"/>
+        <v>10333.522499999999</v>
+      </c>
     </row>
     <row r="127" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A127" s="1" t="s">
@@ -6784,19 +7156,19 @@
         <v>4890.25</v>
       </c>
       <c r="G127" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>4107.8099999999995</v>
       </c>
       <c r="H127" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24451.25</v>
       </c>
       <c r="I127" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>28559.059999999998</v>
       </c>
       <c r="J127" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.76</v>
       </c>
       <c r="K127" s="4">
@@ -6804,10 +7176,13 @@
         <v>4890.25</v>
       </c>
       <c r="L127" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>42838.59</v>
       </c>
-      <c r="M127" s="2"/>
+      <c r="M127" s="2">
+        <f t="shared" si="12"/>
+        <v>14279.529999999999</v>
+      </c>
     </row>
     <row r="128" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A128" s="1" t="s">
@@ -6829,19 +7204,19 @@
         <v>4731.25</v>
       </c>
       <c r="G128" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3974.25</v>
       </c>
       <c r="H128" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>23656.25</v>
       </c>
       <c r="I128" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27630.5</v>
       </c>
       <c r="J128" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.76</v>
       </c>
       <c r="K128" s="4">
@@ -6849,10 +7224,13 @@
         <v>4731.25</v>
       </c>
       <c r="L128" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>41445.75</v>
       </c>
-      <c r="M128" s="2"/>
+      <c r="M128" s="2">
+        <f t="shared" si="12"/>
+        <v>13815.25</v>
+      </c>
     </row>
     <row r="129" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A129" s="1" t="s">
@@ -6874,19 +7252,19 @@
         <v>4993.25</v>
       </c>
       <c r="G129" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>56024.265000000007</v>
       </c>
       <c r="H129" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>24966.25</v>
       </c>
       <c r="I129" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>80990.515000000014</v>
       </c>
       <c r="J129" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>24.33</v>
       </c>
       <c r="K129" s="4">
@@ -6894,10 +7272,13 @@
         <v>4993.25</v>
       </c>
       <c r="L129" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>121485.77249999999</v>
       </c>
-      <c r="M129" s="2"/>
+      <c r="M129" s="2">
+        <f t="shared" si="12"/>
+        <v>40495.257499999978</v>
+      </c>
     </row>
     <row r="130" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A130" s="1" t="s">
@@ -6919,19 +7300,19 @@
         <v>4539.75</v>
       </c>
       <c r="G130" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>3370.7643750000002</v>
       </c>
       <c r="H130" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>22698.75</v>
       </c>
       <c r="I130" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>26069.514374999999</v>
       </c>
       <c r="J130" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>8.6137499999999996</v>
       </c>
       <c r="K130" s="4">
@@ -6939,10 +7320,13 @@
         <v>4539.75</v>
       </c>
       <c r="L130" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>39104.271562499998</v>
       </c>
-      <c r="M130" s="2"/>
+      <c r="M130" s="2">
+        <f t="shared" si="12"/>
+        <v>13034.757187499999</v>
+      </c>
     </row>
     <row r="131" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A131" s="1" t="s">
@@ -6964,19 +7348,19 @@
         <v>3829</v>
       </c>
       <c r="G131" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>7868.5950000000003</v>
       </c>
       <c r="H131" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>19145</v>
       </c>
       <c r="I131" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>27013.595000000001</v>
       </c>
       <c r="J131" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>10.5825</v>
       </c>
       <c r="K131" s="4">
@@ -6984,10 +7368,13 @@
         <v>3829</v>
       </c>
       <c r="L131" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>40520.392500000002</v>
       </c>
-      <c r="M131" s="2"/>
+      <c r="M131" s="2">
+        <f t="shared" si="12"/>
+        <v>13506.797500000001</v>
+      </c>
     </row>
     <row r="132" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A132" s="1" t="s">
@@ -7009,19 +7396,19 @@
         <v>4127.75</v>
       </c>
       <c r="G132" s="2">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>61369.323124999995</v>
       </c>
       <c r="H132" s="2">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>20638.75</v>
       </c>
       <c r="I132" s="2">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>82008.073124999995</v>
       </c>
       <c r="J132" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>29.80125</v>
       </c>
       <c r="K132" s="4">
@@ -7029,10 +7416,13 @@
         <v>4127.75</v>
       </c>
       <c r="L132" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>123012.10968749999</v>
       </c>
-      <c r="M132" s="2"/>
+      <c r="M132" s="2">
+        <f t="shared" si="12"/>
+        <v>41004.036562499998</v>
+      </c>
     </row>
     <row r="133" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A133" s="1" t="s">
@@ -7054,19 +7444,19 @@
         <v>4839.25</v>
       </c>
       <c r="G133" s="2">
-        <f t="shared" ref="G133:G196" si="11">PRODUCT(E133:F133)</f>
+        <f t="shared" ref="G133:G196" si="13">PRODUCT(E133:F133)</f>
         <v>24885.843124999999</v>
       </c>
       <c r="H133" s="2">
-        <f t="shared" ref="H133:H196" si="12">PRODUCT(F133,$P$1)</f>
+        <f t="shared" ref="H133:H196" si="14">PRODUCT(F133,$P$1)</f>
         <v>24196.25</v>
       </c>
       <c r="I133" s="2">
-        <f t="shared" ref="I133:I196" si="13">SUM(G133+H133)</f>
+        <f t="shared" ref="I133:I196" si="15">SUM(G133+H133)</f>
         <v>49082.093124999999</v>
       </c>
       <c r="J133" s="2">
-        <f t="shared" ref="J133:J196" si="14" xml:space="preserve"> (E133 + $P$1) * 1.5</f>
+        <f t="shared" ref="J133:J196" si="16" xml:space="preserve"> (E133 + $P$1) * 1.5</f>
         <v>15.213750000000001</v>
       </c>
       <c r="K133" s="4">
@@ -7074,10 +7464,13 @@
         <v>4839.25</v>
       </c>
       <c r="L133" s="2">
-        <f t="shared" ref="L133:L196" si="15">K133*J133</f>
+        <f t="shared" ref="L133:L196" si="17">K133*J133</f>
         <v>73623.139687500006</v>
       </c>
-      <c r="M133" s="2"/>
+      <c r="M133" s="2">
+        <f t="shared" ref="M133:M196" si="18">L133-I133</f>
+        <v>24541.046562500007</v>
+      </c>
     </row>
     <row r="134" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A134" s="1" t="s">
@@ -7099,19 +7492,19 @@
         <v>4554.5</v>
       </c>
       <c r="G134" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>47332.641250000001</v>
       </c>
       <c r="H134" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22772.5</v>
       </c>
       <c r="I134" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>70105.141250000001</v>
       </c>
       <c r="J134" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>23.088750000000001</v>
       </c>
       <c r="K134" s="4">
@@ -7119,10 +7512,13 @@
         <v>4554.5</v>
       </c>
       <c r="L134" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>105157.71187500001</v>
       </c>
-      <c r="M134" s="2"/>
+      <c r="M134" s="2">
+        <f t="shared" si="18"/>
+        <v>35052.570625000008</v>
+      </c>
     </row>
     <row r="135" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A135" s="1" t="s">
@@ -7144,19 +7540,19 @@
         <v>4071</v>
       </c>
       <c r="G135" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42307.8675</v>
       </c>
       <c r="H135" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20355</v>
       </c>
       <c r="I135" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>62662.8675</v>
       </c>
       <c r="J135" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>23.088750000000001</v>
       </c>
       <c r="K135" s="4">
@@ -7164,10 +7560,13 @@
         <v>4071</v>
       </c>
       <c r="L135" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>93994.301250000004</v>
       </c>
-      <c r="M135" s="2"/>
+      <c r="M135" s="2">
+        <f t="shared" si="18"/>
+        <v>31331.433750000004</v>
+      </c>
     </row>
     <row r="136" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A136" s="1" t="s">
@@ -7189,19 +7588,19 @@
         <v>4083</v>
       </c>
       <c r="G136" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>42432.577499999999</v>
       </c>
       <c r="H136" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20415</v>
       </c>
       <c r="I136" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>62847.577499999999</v>
       </c>
       <c r="J136" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>23.088750000000001</v>
       </c>
       <c r="K136" s="4">
@@ -7209,10 +7608,13 @@
         <v>4083</v>
       </c>
       <c r="L136" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>94271.366250000006</v>
       </c>
-      <c r="M136" s="2"/>
+      <c r="M136" s="2">
+        <f t="shared" si="18"/>
+        <v>31423.788750000007</v>
+      </c>
     </row>
     <row r="137" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A137" s="1" t="s">
@@ -7234,19 +7636,19 @@
         <v>3916.25</v>
       </c>
       <c r="G137" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>40699.628125000003</v>
       </c>
       <c r="H137" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19581.25</v>
       </c>
       <c r="I137" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>60280.878125000003</v>
       </c>
       <c r="J137" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>23.088750000000001</v>
       </c>
       <c r="K137" s="4">
@@ -7254,10 +7656,13 @@
         <v>3916.25</v>
       </c>
       <c r="L137" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>90421.317187499997</v>
       </c>
-      <c r="M137" s="2"/>
+      <c r="M137" s="2">
+        <f t="shared" si="18"/>
+        <v>30140.439062499994</v>
+      </c>
     </row>
     <row r="138" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A138" s="1" t="s">
@@ -7279,19 +7684,19 @@
         <v>4224.25</v>
       </c>
       <c r="G138" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>635475.04874999996</v>
       </c>
       <c r="H138" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21121.25</v>
       </c>
       <c r="I138" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>656596.29874999996</v>
       </c>
       <c r="J138" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>233.1525</v>
       </c>
       <c r="K138" s="4">
@@ -7299,10 +7704,13 @@
         <v>4224.25</v>
       </c>
       <c r="L138" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>984894.448125</v>
       </c>
-      <c r="M138" s="2"/>
+      <c r="M138" s="2">
+        <f t="shared" si="18"/>
+        <v>328298.14937500004</v>
+      </c>
     </row>
     <row r="139" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A139" s="1" t="s">
@@ -7324,19 +7732,19 @@
         <v>3925.25</v>
       </c>
       <c r="G139" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>196115.30312500001</v>
       </c>
       <c r="H139" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19626.25</v>
       </c>
       <c r="I139" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>215741.55312500001</v>
       </c>
       <c r="J139" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>82.443749999999994</v>
       </c>
       <c r="K139" s="4">
@@ -7344,10 +7752,13 @@
         <v>3925.25</v>
       </c>
       <c r="L139" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>323612.32968749997</v>
       </c>
-      <c r="M139" s="2"/>
+      <c r="M139" s="2">
+        <f t="shared" si="18"/>
+        <v>107870.77656249996</v>
+      </c>
     </row>
     <row r="140" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A140" s="1" t="s">
@@ -7369,19 +7780,19 @@
         <v>4252.75</v>
       </c>
       <c r="G140" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>639762.44625000004</v>
       </c>
       <c r="H140" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21263.75</v>
       </c>
       <c r="I140" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>661026.19625000004</v>
       </c>
       <c r="J140" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>233.1525</v>
       </c>
       <c r="K140" s="4">
@@ -7389,10 +7800,13 @@
         <v>4252.75</v>
       </c>
       <c r="L140" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>991539.29437500006</v>
       </c>
-      <c r="M140" s="2"/>
+      <c r="M140" s="2">
+        <f t="shared" si="18"/>
+        <v>330513.09812500002</v>
+      </c>
     </row>
     <row r="141" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A141" s="1" t="s">
@@ -7414,19 +7828,19 @@
         <v>4308.25</v>
       </c>
       <c r="G141" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>648111.58875</v>
       </c>
       <c r="H141" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21541.25</v>
       </c>
       <c r="I141" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>669652.83875</v>
       </c>
       <c r="J141" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>233.1525</v>
       </c>
       <c r="K141" s="4">
@@ -7434,10 +7848,13 @@
         <v>4308.25</v>
       </c>
       <c r="L141" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1004479.2581250001</v>
       </c>
-      <c r="M141" s="2"/>
+      <c r="M141" s="2">
+        <f t="shared" si="18"/>
+        <v>334826.41937500006</v>
+      </c>
     </row>
     <row r="142" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A142" s="1" t="s">
@@ -7459,19 +7876,19 @@
         <v>3813</v>
       </c>
       <c r="G142" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>573608.65500000003</v>
       </c>
       <c r="H142" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19065</v>
       </c>
       <c r="I142" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>592673.65500000003</v>
       </c>
       <c r="J142" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>233.1525</v>
       </c>
       <c r="K142" s="4">
@@ -7479,10 +7896,13 @@
         <v>3813</v>
       </c>
       <c r="L142" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>889010.48250000004</v>
       </c>
-      <c r="M142" s="2"/>
+      <c r="M142" s="2">
+        <f t="shared" si="18"/>
+        <v>296336.82750000001</v>
+      </c>
     </row>
     <row r="143" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A143" s="1" t="s">
@@ -7504,19 +7924,19 @@
         <v>4725.5</v>
       </c>
       <c r="G143" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>63711.553749999999</v>
       </c>
       <c r="H143" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23627.5</v>
       </c>
       <c r="I143" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>87339.053749999992</v>
       </c>
       <c r="J143" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>27.723750000000003</v>
       </c>
       <c r="K143" s="4">
@@ -7524,10 +7944,13 @@
         <v>4725.5</v>
       </c>
       <c r="L143" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>131008.58062500002</v>
       </c>
-      <c r="M143" s="2"/>
+      <c r="M143" s="2">
+        <f t="shared" si="18"/>
+        <v>43669.526875000025</v>
+      </c>
     </row>
     <row r="144" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A144" s="1" t="s">
@@ -7549,19 +7972,19 @@
         <v>4888</v>
       </c>
       <c r="G144" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>244216.69999999998</v>
       </c>
       <c r="H144" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24440</v>
       </c>
       <c r="I144" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>268656.69999999995</v>
       </c>
       <c r="J144" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>82.443749999999994</v>
       </c>
       <c r="K144" s="4">
@@ -7569,10 +7992,13 @@
         <v>4888</v>
       </c>
       <c r="L144" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>402985.05</v>
       </c>
-      <c r="M144" s="2"/>
+      <c r="M144" s="2">
+        <f t="shared" si="18"/>
+        <v>134328.35000000003</v>
+      </c>
     </row>
     <row r="145" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A145" s="1" t="s">
@@ -7594,19 +8020,19 @@
         <v>4977.25</v>
       </c>
       <c r="G145" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>248091.02625</v>
       </c>
       <c r="H145" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24886.25</v>
       </c>
       <c r="I145" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>272977.27625</v>
       </c>
       <c r="J145" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>82.267499999999998</v>
       </c>
       <c r="K145" s="4">
@@ -7614,10 +8040,13 @@
         <v>4977.25</v>
       </c>
       <c r="L145" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>409465.91437499999</v>
       </c>
-      <c r="M145" s="2"/>
+      <c r="M145" s="2">
+        <f t="shared" si="18"/>
+        <v>136488.638125</v>
+      </c>
     </row>
     <row r="146" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A146" s="1" t="s">
@@ -7639,19 +8068,19 @@
         <v>4607.5</v>
       </c>
       <c r="G146" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>229660.83749999999</v>
       </c>
       <c r="H146" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23037.5</v>
       </c>
       <c r="I146" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>252698.33749999999</v>
       </c>
       <c r="J146" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>82.267499999999998</v>
       </c>
       <c r="K146" s="4">
@@ -7659,10 +8088,13 @@
         <v>4607.5</v>
       </c>
       <c r="L146" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>379047.50624999998</v>
       </c>
-      <c r="M146" s="2"/>
+      <c r="M146" s="2">
+        <f t="shared" si="18"/>
+        <v>126349.16874999998</v>
+      </c>
     </row>
     <row r="147" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A147" s="1" t="s">
@@ -7684,19 +8116,19 @@
         <v>4099.75</v>
       </c>
       <c r="G147" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>204352.03875000001</v>
       </c>
       <c r="H147" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20498.75</v>
       </c>
       <c r="I147" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>224850.78875000001</v>
       </c>
       <c r="J147" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>82.267499999999998</v>
       </c>
       <c r="K147" s="4">
@@ -7704,10 +8136,13 @@
         <v>4099.75</v>
       </c>
       <c r="L147" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>337276.18312499998</v>
       </c>
-      <c r="M147" s="2"/>
+      <c r="M147" s="2">
+        <f t="shared" si="18"/>
+        <v>112425.39437499997</v>
+      </c>
     </row>
     <row r="148" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A148" s="1" t="s">
@@ -7729,19 +8164,19 @@
         <v>3897</v>
       </c>
       <c r="G148" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>46072.282500000001</v>
       </c>
       <c r="H148" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19485</v>
       </c>
       <c r="I148" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>65557.282500000001</v>
       </c>
       <c r="J148" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>25.233749999999997</v>
       </c>
       <c r="K148" s="4">
@@ -7749,10 +8184,13 @@
         <v>3897</v>
       </c>
       <c r="L148" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>98335.923749999987</v>
       </c>
-      <c r="M148" s="2"/>
+      <c r="M148" s="2">
+        <f t="shared" si="18"/>
+        <v>32778.641249999986</v>
+      </c>
     </row>
     <row r="149" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A149" s="1" t="s">
@@ -7774,19 +8212,19 @@
         <v>4918.25</v>
       </c>
       <c r="G149" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14803.932499999999</v>
       </c>
       <c r="H149" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24591.25</v>
       </c>
       <c r="I149" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>39395.182499999995</v>
       </c>
       <c r="J149" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>12.015000000000001</v>
       </c>
       <c r="K149" s="4">
@@ -7794,10 +8232,13 @@
         <v>4918.25</v>
       </c>
       <c r="L149" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>59092.77375</v>
       </c>
-      <c r="M149" s="2"/>
+      <c r="M149" s="2">
+        <f t="shared" si="18"/>
+        <v>19697.591250000005</v>
+      </c>
     </row>
     <row r="150" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A150" s="1" t="s">
@@ -7819,19 +8260,19 @@
         <v>4110.25</v>
       </c>
       <c r="G150" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>17859.036249999997</v>
       </c>
       <c r="H150" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20551.25</v>
       </c>
       <c r="I150" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>38410.286249999997</v>
       </c>
       <c r="J150" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>14.017499999999998</v>
       </c>
       <c r="K150" s="4">
@@ -7839,10 +8280,13 @@
         <v>4110.25</v>
       </c>
       <c r="L150" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>57615.429374999992</v>
       </c>
-      <c r="M150" s="2"/>
+      <c r="M150" s="2">
+        <f t="shared" si="18"/>
+        <v>19205.143124999995</v>
+      </c>
     </row>
     <row r="151" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A151" s="1" t="s">
@@ -7864,19 +8308,19 @@
         <v>3830.75</v>
       </c>
       <c r="G151" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>22381.156875000001</v>
       </c>
       <c r="H151" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19153.75</v>
       </c>
       <c r="I151" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>41534.906875000001</v>
       </c>
       <c r="J151" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>16.263750000000002</v>
       </c>
       <c r="K151" s="4">
@@ -7884,10 +8328,13 @@
         <v>3830.75</v>
       </c>
       <c r="L151" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>62302.360312500008</v>
       </c>
-      <c r="M151" s="2"/>
+      <c r="M151" s="2">
+        <f t="shared" si="18"/>
+        <v>20767.453437500008</v>
+      </c>
     </row>
     <row r="152" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A152" s="1" t="s">
@@ -7909,19 +8356,19 @@
         <v>3934.75</v>
       </c>
       <c r="G152" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>11843.5975</v>
       </c>
       <c r="H152" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19673.75</v>
       </c>
       <c r="I152" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>31517.3475</v>
       </c>
       <c r="J152" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>12.015000000000001</v>
       </c>
       <c r="K152" s="4">
@@ -7929,10 +8376,13 @@
         <v>3934.75</v>
       </c>
       <c r="L152" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>47276.021250000005</v>
       </c>
-      <c r="M152" s="2"/>
+      <c r="M152" s="2">
+        <f t="shared" si="18"/>
+        <v>15758.673750000005</v>
+      </c>
     </row>
     <row r="153" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A153" s="1" t="s">
@@ -7954,19 +8404,19 @@
         <v>4306</v>
       </c>
       <c r="G153" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>18709.57</v>
       </c>
       <c r="H153" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21530</v>
       </c>
       <c r="I153" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>40239.57</v>
       </c>
       <c r="J153" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>14.017499999999998</v>
       </c>
       <c r="K153" s="4">
@@ -7974,10 +8424,13 @@
         <v>4306</v>
       </c>
       <c r="L153" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>60359.354999999996</v>
       </c>
-      <c r="M153" s="2"/>
+      <c r="M153" s="2">
+        <f t="shared" si="18"/>
+        <v>20119.784999999996</v>
+      </c>
     </row>
     <row r="154" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A154" s="1" t="s">
@@ -7999,19 +8452,19 @@
         <v>4266.5</v>
       </c>
       <c r="G154" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>24927.026250000003</v>
       </c>
       <c r="H154" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21332.5</v>
       </c>
       <c r="I154" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>46259.526250000003</v>
       </c>
       <c r="J154" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>16.263750000000002</v>
       </c>
       <c r="K154" s="4">
@@ -8019,10 +8472,13 @@
         <v>4266.5</v>
       </c>
       <c r="L154" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>69389.289375000008</v>
       </c>
-      <c r="M154" s="2"/>
+      <c r="M154" s="2">
+        <f t="shared" si="18"/>
+        <v>23129.763125000005</v>
+      </c>
     </row>
     <row r="155" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A155" s="1" t="s">
@@ -8044,19 +8500,19 @@
         <v>4858</v>
       </c>
       <c r="G155" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14622.579999999998</v>
       </c>
       <c r="H155" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24290</v>
       </c>
       <c r="I155" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>38912.58</v>
       </c>
       <c r="J155" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>12.015000000000001</v>
       </c>
       <c r="K155" s="4">
@@ -8064,10 +8520,13 @@
         <v>4858</v>
       </c>
       <c r="L155" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>58368.87</v>
       </c>
-      <c r="M155" s="2"/>
+      <c r="M155" s="2">
+        <f t="shared" si="18"/>
+        <v>19456.29</v>
+      </c>
     </row>
     <row r="156" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A156" s="1" t="s">
@@ -8089,19 +8548,19 @@
         <v>4543.75</v>
       </c>
       <c r="G156" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>19742.59375</v>
       </c>
       <c r="H156" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22718.75</v>
       </c>
       <c r="I156" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>42461.34375</v>
       </c>
       <c r="J156" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>14.017499999999998</v>
       </c>
       <c r="K156" s="4">
@@ -8109,10 +8568,13 @@
         <v>4543.75</v>
       </c>
       <c r="L156" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>63692.015624999993</v>
       </c>
-      <c r="M156" s="2"/>
+      <c r="M156" s="2">
+        <f t="shared" si="18"/>
+        <v>21230.671874999993</v>
+      </c>
     </row>
     <row r="157" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A157" s="1" t="s">
@@ -8134,19 +8596,19 @@
         <v>4152.5</v>
       </c>
       <c r="G157" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>24260.981250000001</v>
       </c>
       <c r="H157" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20762.5</v>
       </c>
       <c r="I157" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>45023.481249999997</v>
       </c>
       <c r="J157" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>16.263750000000002</v>
       </c>
       <c r="K157" s="4">
@@ -8154,10 +8616,13 @@
         <v>4152.5</v>
       </c>
       <c r="L157" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>67535.221875000003</v>
       </c>
-      <c r="M157" s="2"/>
+      <c r="M157" s="2">
+        <f t="shared" si="18"/>
+        <v>22511.740625000006</v>
+      </c>
     </row>
     <row r="158" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A158" s="1" t="s">
@@ -8179,19 +8644,19 @@
         <v>4475.75</v>
       </c>
       <c r="G158" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>161787.173125</v>
       </c>
       <c r="H158" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22378.75</v>
       </c>
       <c r="I158" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>184165.923125</v>
       </c>
       <c r="J158" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>61.721249999999998</v>
       </c>
       <c r="K158" s="4">
@@ -8199,10 +8664,13 @@
         <v>4475.75</v>
       </c>
       <c r="L158" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>276248.88468750002</v>
       </c>
-      <c r="M158" s="2"/>
+      <c r="M158" s="2">
+        <f t="shared" si="18"/>
+        <v>92082.961562500015</v>
+      </c>
     </row>
     <row r="159" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A159" s="1" t="s">
@@ -8224,19 +8692,19 @@
         <v>4877.5</v>
       </c>
       <c r="G159" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>176309.43124999999</v>
       </c>
       <c r="H159" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24387.5</v>
       </c>
       <c r="I159" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>200696.93124999999</v>
       </c>
       <c r="J159" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>61.721249999999998</v>
       </c>
       <c r="K159" s="4">
@@ -8244,10 +8712,13 @@
         <v>4877.5</v>
       </c>
       <c r="L159" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>301045.39687499998</v>
       </c>
-      <c r="M159" s="2"/>
+      <c r="M159" s="2">
+        <f t="shared" si="18"/>
+        <v>100348.46562499998</v>
+      </c>
     </row>
     <row r="160" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A160" s="1" t="s">
@@ -8269,19 +8740,19 @@
         <v>4568.25</v>
       </c>
       <c r="G160" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>165130.81687499999</v>
       </c>
       <c r="H160" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22841.25</v>
       </c>
       <c r="I160" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>187972.06687499999</v>
       </c>
       <c r="J160" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>61.721249999999998</v>
       </c>
       <c r="K160" s="4">
@@ -8289,10 +8760,13 @@
         <v>4568.25</v>
       </c>
       <c r="L160" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>281958.10031249997</v>
       </c>
-      <c r="M160" s="2"/>
+      <c r="M160" s="2">
+        <f t="shared" si="18"/>
+        <v>93986.03343749998</v>
+      </c>
     </row>
     <row r="161" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A161" s="1" t="s">
@@ -8314,19 +8788,19 @@
         <v>3766.75</v>
       </c>
       <c r="G161" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>136158.59562500002</v>
       </c>
       <c r="H161" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18833.75</v>
       </c>
       <c r="I161" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>154992.34562500002</v>
       </c>
       <c r="J161" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>61.721249999999998</v>
       </c>
       <c r="K161" s="4">
@@ -8334,10 +8808,13 @@
         <v>3766.75</v>
       </c>
       <c r="L161" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>232488.5184375</v>
       </c>
-      <c r="M161" s="2"/>
+      <c r="M161" s="2">
+        <f t="shared" si="18"/>
+        <v>77496.172812499979</v>
+      </c>
     </row>
     <row r="162" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A162" s="1" t="s">
@@ -8359,19 +8836,19 @@
         <v>4745.25</v>
       </c>
       <c r="G162" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>2218.4043750000001</v>
       </c>
       <c r="H162" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23726.25</v>
       </c>
       <c r="I162" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>25944.654374999998</v>
       </c>
       <c r="J162" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.2012499999999999</v>
       </c>
       <c r="K162" s="4">
@@ -8379,10 +8856,13 @@
         <v>4745.25</v>
       </c>
       <c r="L162" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>38916.981562499997</v>
       </c>
-      <c r="M162" s="2"/>
+      <c r="M162" s="2">
+        <f t="shared" si="18"/>
+        <v>12972.327187499999</v>
+      </c>
     </row>
     <row r="163" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A163" s="1" t="s">
@@ -8404,19 +8884,19 @@
         <v>4184.75</v>
       </c>
       <c r="G163" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1558.819375</v>
       </c>
       <c r="H163" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20923.75</v>
       </c>
       <c r="I163" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>22482.569374999999</v>
       </c>
       <c r="J163" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.0587499999999999</v>
       </c>
       <c r="K163" s="4">
@@ -8424,10 +8904,13 @@
         <v>4184.75</v>
       </c>
       <c r="L163" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>33723.854062500002</v>
       </c>
-      <c r="M163" s="2"/>
+      <c r="M163" s="2">
+        <f t="shared" si="18"/>
+        <v>11241.284687500003</v>
+      </c>
     </row>
     <row r="164" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A164" s="1" t="s">
@@ -8449,19 +8932,19 @@
         <v>3943.75</v>
       </c>
       <c r="G164" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1843.703125</v>
       </c>
       <c r="H164" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19718.75</v>
       </c>
       <c r="I164" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>21562.453125</v>
       </c>
       <c r="J164" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>8.2012499999999999</v>
       </c>
       <c r="K164" s="4">
@@ -8469,10 +8952,13 @@
         <v>3943.75</v>
       </c>
       <c r="L164" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>32343.6796875</v>
       </c>
-      <c r="M164" s="2"/>
+      <c r="M164" s="2">
+        <f t="shared" si="18"/>
+        <v>10781.2265625</v>
+      </c>
     </row>
     <row r="165" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A165" s="1" t="s">
@@ -8494,19 +8980,19 @@
         <v>4494</v>
       </c>
       <c r="G165" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10504.725</v>
       </c>
       <c r="H165" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22470</v>
       </c>
       <c r="I165" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>32974.724999999999</v>
       </c>
       <c r="J165" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.006250000000001</v>
       </c>
       <c r="K165" s="4">
@@ -8514,10 +9000,13 @@
         <v>4494</v>
       </c>
       <c r="L165" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>49462.087500000009</v>
       </c>
-      <c r="M165" s="2"/>
+      <c r="M165" s="2">
+        <f t="shared" si="18"/>
+        <v>16487.36250000001</v>
+      </c>
     </row>
     <row r="166" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A166" s="1" t="s">
@@ -8539,19 +9028,19 @@
         <v>3786.5</v>
       </c>
       <c r="G166" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10621.1325</v>
       </c>
       <c r="H166" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>18932.5</v>
       </c>
       <c r="I166" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>29553.6325</v>
       </c>
       <c r="J166" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.7075</v>
       </c>
       <c r="K166" s="4">
@@ -8559,10 +9048,13 @@
         <v>3786.5</v>
       </c>
       <c r="L166" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>44330.448749999996</v>
       </c>
-      <c r="M166" s="2"/>
+      <c r="M166" s="2">
+        <f t="shared" si="18"/>
+        <v>14776.816249999996</v>
+      </c>
     </row>
     <row r="167" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A167" s="1" t="s">
@@ -8584,19 +9076,19 @@
         <v>4230.75</v>
       </c>
       <c r="G167" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>13845.129375</v>
       </c>
       <c r="H167" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21153.75</v>
       </c>
       <c r="I167" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>34998.879375000004</v>
       </c>
       <c r="J167" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>12.408750000000001</v>
       </c>
       <c r="K167" s="4">
@@ -8604,10 +9096,13 @@
         <v>4230.75</v>
       </c>
       <c r="L167" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>52498.319062500006</v>
       </c>
-      <c r="M167" s="2"/>
+      <c r="M167" s="2">
+        <f t="shared" si="18"/>
+        <v>17499.439687500002</v>
+      </c>
     </row>
     <row r="168" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A168" s="1" t="s">
@@ -8629,19 +9124,19 @@
         <v>4832.25</v>
       </c>
       <c r="G168" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>9712.8224999999984</v>
       </c>
       <c r="H168" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24161.25</v>
       </c>
       <c r="I168" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>33874.072499999995</v>
       </c>
       <c r="J168" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10.515000000000001</v>
       </c>
       <c r="K168" s="4">
@@ -8649,10 +9144,13 @@
         <v>4832.25</v>
       </c>
       <c r="L168" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>50811.108749999999</v>
       </c>
-      <c r="M168" s="2"/>
+      <c r="M168" s="2">
+        <f t="shared" si="18"/>
+        <v>16937.036250000005</v>
+      </c>
     </row>
     <row r="169" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A169" s="1" t="s">
@@ -8674,19 +9172,19 @@
         <v>4809.5</v>
       </c>
       <c r="G169" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>11242.206249999999</v>
       </c>
       <c r="H169" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24047.5</v>
       </c>
       <c r="I169" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>35289.706250000003</v>
       </c>
       <c r="J169" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.006250000000001</v>
       </c>
       <c r="K169" s="4">
@@ -8694,10 +9192,13 @@
         <v>4809.5</v>
       </c>
       <c r="L169" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>52934.559375000004</v>
       </c>
-      <c r="M169" s="2"/>
+      <c r="M169" s="2">
+        <f t="shared" si="18"/>
+        <v>17644.853125000001</v>
+      </c>
     </row>
     <row r="170" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A170" s="1" t="s">
@@ -8719,19 +9220,19 @@
         <v>4893.25</v>
       </c>
       <c r="G170" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>14912.179375</v>
       </c>
       <c r="H170" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24466.25</v>
       </c>
       <c r="I170" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>39378.429375</v>
       </c>
       <c r="J170" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>12.071249999999999</v>
       </c>
       <c r="K170" s="4">
@@ -8739,10 +9240,13 @@
         <v>4893.25</v>
       </c>
       <c r="L170" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>59067.644062499996</v>
       </c>
-      <c r="M170" s="2"/>
+      <c r="M170" s="2">
+        <f t="shared" si="18"/>
+        <v>19689.214687499996</v>
+      </c>
     </row>
     <row r="171" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A171" s="1" t="s">
@@ -8764,19 +9268,19 @@
         <v>3940.25</v>
       </c>
       <c r="G171" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10678.077499999999</v>
       </c>
       <c r="H171" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19701.25</v>
       </c>
       <c r="I171" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>30379.327499999999</v>
       </c>
       <c r="J171" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>11.565</v>
       </c>
       <c r="K171" s="4">
@@ -8784,10 +9288,13 @@
         <v>3940.25</v>
       </c>
       <c r="L171" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>45568.991249999999</v>
       </c>
-      <c r="M171" s="2"/>
+      <c r="M171" s="2">
+        <f t="shared" si="18"/>
+        <v>15189.66375</v>
+      </c>
     </row>
     <row r="172" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A172" s="1" t="s">
@@ -8809,19 +9316,19 @@
         <v>4901.5</v>
       </c>
       <c r="G172" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>22032.2425</v>
       </c>
       <c r="H172" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24507.5</v>
       </c>
       <c r="I172" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>46539.7425</v>
       </c>
       <c r="J172" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>14.242500000000001</v>
       </c>
       <c r="K172" s="4">
@@ -8829,10 +9336,13 @@
         <v>4901.5</v>
       </c>
       <c r="L172" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>69809.613750000004</v>
       </c>
-      <c r="M172" s="2"/>
+      <c r="M172" s="2">
+        <f t="shared" si="18"/>
+        <v>23269.871250000004</v>
+      </c>
     </row>
     <row r="173" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A173" s="1" t="s">
@@ -8854,19 +9364,19 @@
         <v>4552.75</v>
       </c>
       <c r="G173" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>31379.829375000001</v>
       </c>
       <c r="H173" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22763.75</v>
       </c>
       <c r="I173" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>54143.579375000001</v>
       </c>
       <c r="J173" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>17.838750000000001</v>
       </c>
       <c r="K173" s="4">
@@ -8874,10 +9384,13 @@
         <v>4552.75</v>
       </c>
       <c r="L173" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>81215.369062500002</v>
       </c>
-      <c r="M173" s="2"/>
+      <c r="M173" s="2">
+        <f t="shared" si="18"/>
+        <v>27071.789687500001</v>
+      </c>
     </row>
     <row r="174" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A174" s="1" t="s">
@@ -8899,19 +9412,19 @@
         <v>4139</v>
       </c>
       <c r="G174" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>37209.61</v>
       </c>
       <c r="H174" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>20695</v>
       </c>
       <c r="I174" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>57904.61</v>
       </c>
       <c r="J174" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>20.984999999999999</v>
       </c>
       <c r="K174" s="4">
@@ -8919,10 +9432,13 @@
         <v>4139</v>
       </c>
       <c r="L174" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>86856.914999999994</v>
       </c>
-      <c r="M174" s="2"/>
+      <c r="M174" s="2">
+        <f t="shared" si="18"/>
+        <v>28952.304999999993</v>
+      </c>
     </row>
     <row r="175" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A175" s="1" t="s">
@@ -8944,19 +9460,19 @@
         <v>4725</v>
       </c>
       <c r="G175" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21238.875</v>
       </c>
       <c r="H175" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23625</v>
       </c>
       <c r="I175" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>44863.875</v>
       </c>
       <c r="J175" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>14.242500000000001</v>
       </c>
       <c r="K175" s="4">
@@ -8964,10 +9480,13 @@
         <v>4725</v>
       </c>
       <c r="L175" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>67295.8125</v>
       </c>
-      <c r="M175" s="2"/>
+      <c r="M175" s="2">
+        <f t="shared" si="18"/>
+        <v>22431.9375</v>
+      </c>
     </row>
     <row r="176" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A176" s="1" t="s">
@@ -8989,19 +9508,19 @@
         <v>4308.25</v>
       </c>
       <c r="G176" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>29694.613125</v>
       </c>
       <c r="H176" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21541.25</v>
       </c>
       <c r="I176" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>51235.863125000003</v>
       </c>
       <c r="J176" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>17.838750000000001</v>
       </c>
       <c r="K176" s="4">
@@ -9009,10 +9528,13 @@
         <v>4308.25</v>
       </c>
       <c r="L176" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>76853.794687500005</v>
       </c>
-      <c r="M176" s="2"/>
+      <c r="M176" s="2">
+        <f t="shared" si="18"/>
+        <v>25617.931562500002</v>
+      </c>
     </row>
     <row r="177" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A177" s="1" t="s">
@@ -9034,19 +9556,19 @@
         <v>4859.5</v>
       </c>
       <c r="G177" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>43686.904999999999</v>
       </c>
       <c r="H177" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24297.5</v>
       </c>
       <c r="I177" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>67984.404999999999</v>
       </c>
       <c r="J177" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>20.984999999999999</v>
       </c>
       <c r="K177" s="4">
@@ -9054,10 +9576,13 @@
         <v>4859.5</v>
       </c>
       <c r="L177" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>101976.6075</v>
       </c>
-      <c r="M177" s="2"/>
+      <c r="M177" s="2">
+        <f t="shared" si="18"/>
+        <v>33992.202499999999</v>
+      </c>
     </row>
     <row r="178" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A178" s="1" t="s">
@@ -9079,19 +9604,19 @@
         <v>4923.75</v>
       </c>
       <c r="G178" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>44264.512500000004</v>
       </c>
       <c r="H178" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24618.75</v>
       </c>
       <c r="I178" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>68883.262500000012</v>
       </c>
       <c r="J178" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>20.984999999999999</v>
       </c>
       <c r="K178" s="4">
@@ -9099,10 +9624,13 @@
         <v>4923.75</v>
       </c>
       <c r="L178" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>103324.89375</v>
       </c>
-      <c r="M178" s="2"/>
+      <c r="M178" s="2">
+        <f t="shared" si="18"/>
+        <v>34441.631249999991</v>
+      </c>
     </row>
     <row r="179" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A179" s="1" t="s">
@@ -9124,19 +9652,19 @@
         <v>4740</v>
       </c>
       <c r="G179" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>236265.3</v>
       </c>
       <c r="H179" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23700</v>
       </c>
       <c r="I179" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>259965.3</v>
       </c>
       <c r="J179" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>82.267499999999998</v>
       </c>
       <c r="K179" s="4">
@@ -9144,10 +9672,13 @@
         <v>4740</v>
       </c>
       <c r="L179" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>389947.95</v>
       </c>
-      <c r="M179" s="2"/>
+      <c r="M179" s="2">
+        <f t="shared" si="18"/>
+        <v>129982.65000000002</v>
+      </c>
     </row>
     <row r="180" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A180" s="1" t="s">
@@ -9169,19 +9700,19 @@
         <v>4245.5</v>
       </c>
       <c r="G180" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>153464.21124999999</v>
       </c>
       <c r="H180" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21227.5</v>
       </c>
       <c r="I180" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>174691.71124999999</v>
       </c>
       <c r="J180" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>61.721249999999998</v>
       </c>
       <c r="K180" s="4">
@@ -9189,10 +9720,13 @@
         <v>4245.5</v>
       </c>
       <c r="L180" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>262037.56687499999</v>
       </c>
-      <c r="M180" s="2"/>
+      <c r="M180" s="2">
+        <f t="shared" si="18"/>
+        <v>87345.855624999997</v>
+      </c>
     </row>
     <row r="181" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A181" s="1" t="s">
@@ -9214,19 +9748,19 @@
         <v>4428</v>
       </c>
       <c r="G181" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>44966.34</v>
       </c>
       <c r="H181" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22140</v>
       </c>
       <c r="I181" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>67106.34</v>
       </c>
       <c r="J181" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>22.732499999999998</v>
       </c>
       <c r="K181" s="4">
@@ -9234,10 +9768,13 @@
         <v>4428</v>
       </c>
       <c r="L181" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>100659.51</v>
       </c>
-      <c r="M181" s="2"/>
+      <c r="M181" s="2">
+        <f t="shared" si="18"/>
+        <v>33553.17</v>
+      </c>
     </row>
     <row r="182" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A182" s="1" t="s">
@@ -9259,19 +9796,19 @@
         <v>4288</v>
       </c>
       <c r="G182" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>21933.120000000003</v>
       </c>
       <c r="H182" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21440</v>
       </c>
       <c r="I182" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>43373.120000000003</v>
       </c>
       <c r="J182" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>15.172499999999999</v>
       </c>
       <c r="K182" s="4">
@@ -9279,10 +9816,13 @@
         <v>4288</v>
       </c>
       <c r="L182" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>65059.68</v>
       </c>
-      <c r="M182" s="2"/>
+      <c r="M182" s="2">
+        <f t="shared" si="18"/>
+        <v>21686.559999999998</v>
+      </c>
     </row>
     <row r="183" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A183" s="1" t="s">
@@ -9304,19 +9844,19 @@
         <v>4811.25</v>
       </c>
       <c r="G183" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>48906.356249999997</v>
       </c>
       <c r="H183" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24056.25</v>
       </c>
       <c r="I183" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>72962.606249999997</v>
       </c>
       <c r="J183" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>22.747499999999999</v>
       </c>
       <c r="K183" s="4">
@@ -9324,10 +9864,13 @@
         <v>4811.25</v>
       </c>
       <c r="L183" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>109443.90937499999</v>
       </c>
-      <c r="M183" s="2"/>
+      <c r="M183" s="2">
+        <f t="shared" si="18"/>
+        <v>36481.303124999991</v>
+      </c>
     </row>
     <row r="184" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A184" s="1" t="s">
@@ -9349,19 +9892,19 @@
         <v>4399</v>
       </c>
       <c r="G184" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>52007.177499999998</v>
       </c>
       <c r="H184" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21995</v>
       </c>
       <c r="I184" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>74002.177499999991</v>
       </c>
       <c r="J184" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>25.233749999999997</v>
       </c>
       <c r="K184" s="4">
@@ -9369,10 +9912,13 @@
         <v>4399</v>
       </c>
       <c r="L184" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>111003.26624999999</v>
       </c>
-      <c r="M184" s="2"/>
+      <c r="M184" s="2">
+        <f t="shared" si="18"/>
+        <v>37001.088749999995</v>
+      </c>
     </row>
     <row r="185" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A185" s="1" t="s">
@@ -9394,19 +9940,19 @@
         <v>4513.75</v>
       </c>
       <c r="G185" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>10144.653125000001</v>
       </c>
       <c r="H185" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22568.75</v>
       </c>
       <c r="I185" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>32713.403125000001</v>
       </c>
       <c r="J185" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>10.87125</v>
       </c>
       <c r="K185" s="4">
@@ -9414,10 +9960,13 @@
         <v>4513.75</v>
       </c>
       <c r="L185" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>49070.104687500003</v>
       </c>
-      <c r="M185" s="2"/>
+      <c r="M185" s="2">
+        <f t="shared" si="18"/>
+        <v>16356.701562500002</v>
+      </c>
     </row>
     <row r="186" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A186" s="1" t="s">
@@ -9439,19 +9988,19 @@
         <v>4363.25</v>
       </c>
       <c r="G186" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>823727.05937499995</v>
       </c>
       <c r="H186" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21816.25</v>
       </c>
       <c r="I186" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>845543.30937499995</v>
       </c>
       <c r="J186" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>290.68124999999998</v>
       </c>
       <c r="K186" s="4">
@@ -9459,10 +10008,13 @@
         <v>4363.25</v>
       </c>
       <c r="L186" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>1268314.9640624998</v>
       </c>
-      <c r="M186" s="2"/>
+      <c r="M186" s="2">
+        <f t="shared" si="18"/>
+        <v>422771.65468749986</v>
+      </c>
     </row>
     <row r="187" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A187" s="1" t="s">
@@ -9484,19 +10036,19 @@
         <v>4388.75</v>
       </c>
       <c r="G187" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1625966.04375</v>
       </c>
       <c r="H187" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>21943.75</v>
       </c>
       <c r="I187" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1647909.79375</v>
       </c>
       <c r="J187" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>563.22749999999996</v>
       </c>
       <c r="K187" s="4">
@@ -9504,10 +10056,13 @@
         <v>4388.75</v>
       </c>
       <c r="L187" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2471864.6906249998</v>
       </c>
-      <c r="M187" s="2"/>
+      <c r="M187" s="2">
+        <f t="shared" si="18"/>
+        <v>823954.89687499986</v>
+      </c>
     </row>
     <row r="188" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A188" s="1" t="s">
@@ -9529,19 +10084,19 @@
         <v>4916.75</v>
       </c>
       <c r="G188" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1821582.12375</v>
       </c>
       <c r="H188" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24583.75</v>
       </c>
       <c r="I188" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1846165.87375</v>
       </c>
       <c r="J188" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>563.22749999999996</v>
       </c>
       <c r="K188" s="4">
@@ -9549,10 +10104,13 @@
         <v>4916.75</v>
       </c>
       <c r="L188" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2769248.8106249999</v>
       </c>
-      <c r="M188" s="2"/>
+      <c r="M188" s="2">
+        <f t="shared" si="18"/>
+        <v>923082.9368749999</v>
+      </c>
     </row>
     <row r="189" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A189" s="1" t="s">
@@ -9574,19 +10132,19 @@
         <v>4647.25</v>
       </c>
       <c r="G189" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1721736.41625</v>
       </c>
       <c r="H189" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23236.25</v>
       </c>
       <c r="I189" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1744972.66625</v>
       </c>
       <c r="J189" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>563.22749999999996</v>
       </c>
       <c r="K189" s="4">
@@ -9594,10 +10152,13 @@
         <v>4647.25</v>
       </c>
       <c r="L189" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2617458.9993749997</v>
       </c>
-      <c r="M189" s="2"/>
+      <c r="M189" s="2">
+        <f t="shared" si="18"/>
+        <v>872486.33312499966</v>
+      </c>
     </row>
     <row r="190" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A190" s="1" t="s">
@@ -9619,19 +10180,19 @@
         <v>4568.75</v>
       </c>
       <c r="G190" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>1692653.34375</v>
       </c>
       <c r="H190" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22843.75</v>
       </c>
       <c r="I190" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>1715497.09375</v>
       </c>
       <c r="J190" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>563.22749999999996</v>
       </c>
       <c r="K190" s="4">
@@ -9639,10 +10200,13 @@
         <v>4568.75</v>
       </c>
       <c r="L190" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>2573245.640625</v>
       </c>
-      <c r="M190" s="2"/>
+      <c r="M190" s="2">
+        <f t="shared" si="18"/>
+        <v>857748.546875</v>
+      </c>
     </row>
     <row r="191" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A191" s="1" t="s">
@@ -9664,19 +10228,19 @@
         <v>4827.75</v>
       </c>
       <c r="G191" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>556929.24</v>
       </c>
       <c r="H191" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>24138.75</v>
       </c>
       <c r="I191" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>581067.99</v>
       </c>
       <c r="J191" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>180.54</v>
       </c>
       <c r="K191" s="4">
@@ -9684,10 +10248,13 @@
         <v>4827.75</v>
       </c>
       <c r="L191" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>871601.98499999999</v>
       </c>
-      <c r="M191" s="2"/>
+      <c r="M191" s="2">
+        <f t="shared" si="18"/>
+        <v>290533.995</v>
+      </c>
     </row>
     <row r="192" spans="1:13" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A192" s="1" t="s">
@@ -9709,19 +10276,19 @@
         <v>4544.5</v>
       </c>
       <c r="G192" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>524253.52</v>
       </c>
       <c r="H192" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22722.5</v>
       </c>
       <c r="I192" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>546976.02</v>
       </c>
       <c r="J192" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>180.54</v>
       </c>
       <c r="K192" s="4">
@@ -9729,10 +10296,13 @@
         <v>4544.5</v>
       </c>
       <c r="L192" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>820464.02999999991</v>
       </c>
-      <c r="M192" s="2"/>
+      <c r="M192" s="2">
+        <f t="shared" si="18"/>
+        <v>273488.00999999989</v>
+      </c>
     </row>
     <row r="193" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A193" s="1" t="s">
@@ -9754,19 +10324,19 @@
         <v>4624.75</v>
       </c>
       <c r="G193" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>533511.16</v>
       </c>
       <c r="H193" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23123.75</v>
       </c>
       <c r="I193" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>556634.91</v>
       </c>
       <c r="J193" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>180.54</v>
       </c>
       <c r="K193" s="4">
@@ -9774,10 +10344,13 @@
         <v>4624.75</v>
       </c>
       <c r="L193" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>834952.36499999999</v>
       </c>
-      <c r="M193" s="2"/>
+      <c r="M193" s="2">
+        <f t="shared" si="18"/>
+        <v>278317.45499999996</v>
+      </c>
     </row>
     <row r="194" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A194" s="1" t="s">
@@ -9799,19 +10372,19 @@
         <v>4579.75</v>
       </c>
       <c r="G194" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>480621.86374999996</v>
       </c>
       <c r="H194" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>22898.75</v>
       </c>
       <c r="I194" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>503520.61374999996</v>
       </c>
       <c r="J194" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>164.91749999999999</v>
       </c>
       <c r="K194" s="4">
@@ -9819,10 +10392,13 @@
         <v>4579.75</v>
       </c>
       <c r="L194" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>755280.92062499991</v>
       </c>
-      <c r="M194" s="2"/>
+      <c r="M194" s="2">
+        <f t="shared" si="18"/>
+        <v>251760.30687499995</v>
+      </c>
       <c r="Q194" s="3"/>
     </row>
     <row r="195" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -9845,19 +10421,19 @@
         <v>4769.25</v>
       </c>
       <c r="G195" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>500508.94124999997</v>
       </c>
       <c r="H195" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>23846.25</v>
       </c>
       <c r="I195" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>524355.19124999992</v>
       </c>
       <c r="J195" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>164.91749999999999</v>
       </c>
       <c r="K195" s="4">
@@ -9865,10 +10441,13 @@
         <v>4769.25</v>
       </c>
       <c r="L195" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>786532.78687499999</v>
       </c>
-      <c r="M195" s="2"/>
+      <c r="M195" s="2">
+        <f t="shared" si="18"/>
+        <v>262177.59562500007</v>
+      </c>
     </row>
     <row r="196" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A196" s="1" t="s">
@@ -9890,19 +10469,19 @@
         <v>3845.25</v>
       </c>
       <c r="G196" s="2">
-        <f t="shared" si="11"/>
+        <f t="shared" si="13"/>
         <v>403539.76124999998</v>
       </c>
       <c r="H196" s="2">
-        <f t="shared" si="12"/>
+        <f t="shared" si="14"/>
         <v>19226.25</v>
       </c>
       <c r="I196" s="2">
-        <f t="shared" si="13"/>
+        <f t="shared" si="15"/>
         <v>422766.01124999998</v>
       </c>
       <c r="J196" s="2">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
         <v>164.91749999999999</v>
       </c>
       <c r="K196" s="4">
@@ -9910,10 +10489,13 @@
         <v>3845.25</v>
       </c>
       <c r="L196" s="2">
-        <f t="shared" si="15"/>
+        <f t="shared" si="17"/>
         <v>634149.01687499997</v>
       </c>
-      <c r="M196" s="2"/>
+      <c r="M196" s="2">
+        <f t="shared" si="18"/>
+        <v>211383.00562499999</v>
+      </c>
     </row>
     <row r="197" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A197" s="1" t="s">
@@ -9935,19 +10517,19 @@
         <v>4988.75</v>
       </c>
       <c r="G197" s="2">
-        <f t="shared" ref="G197:G200" si="16">PRODUCT(E197:F197)</f>
+        <f t="shared" ref="G197:G200" si="19">PRODUCT(E197:F197)</f>
         <v>523544.36874999997</v>
       </c>
       <c r="H197" s="2">
-        <f t="shared" ref="H197:H200" si="17">PRODUCT(F197,$P$1)</f>
+        <f t="shared" ref="H197:H200" si="20">PRODUCT(F197,$P$1)</f>
         <v>24943.75</v>
       </c>
       <c r="I197" s="2">
-        <f t="shared" ref="I197:I200" si="18">SUM(G197+H197)</f>
+        <f t="shared" ref="I197:I200" si="21">SUM(G197+H197)</f>
         <v>548488.11874999991</v>
       </c>
       <c r="J197" s="2">
-        <f t="shared" ref="J197:J200" si="19" xml:space="preserve"> (E197 + $P$1) * 1.5</f>
+        <f t="shared" ref="J197:J200" si="22" xml:space="preserve"> (E197 + $P$1) * 1.5</f>
         <v>164.91749999999999</v>
       </c>
       <c r="K197" s="4">
@@ -9955,10 +10537,13 @@
         <v>4988.75</v>
       </c>
       <c r="L197" s="2">
-        <f t="shared" ref="L197:L200" si="20">K197*J197</f>
+        <f t="shared" ref="L197:L200" si="23">K197*J197</f>
         <v>822732.17812499998</v>
       </c>
-      <c r="M197" s="2"/>
+      <c r="M197" s="2">
+        <f t="shared" ref="M197:M200" si="24">L197-I197</f>
+        <v>274244.05937500007</v>
+      </c>
     </row>
     <row r="198" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A198" s="1" t="s">
@@ -9980,19 +10565,19 @@
         <v>3783.25</v>
       </c>
       <c r="G198" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>22671.125625000001</v>
       </c>
       <c r="H198" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>18916.25</v>
       </c>
       <c r="I198" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>41587.375625000001</v>
       </c>
       <c r="J198" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>16.48875</v>
       </c>
       <c r="K198" s="4">
@@ -10000,10 +10585,13 @@
         <v>3783.25</v>
       </c>
       <c r="L198" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>62381.063437500001</v>
       </c>
-      <c r="M198" s="2"/>
+      <c r="M198" s="2">
+        <f t="shared" si="24"/>
+        <v>20793.6878125</v>
+      </c>
     </row>
     <row r="199" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A199" s="1" t="s">
@@ -10025,19 +10613,19 @@
         <v>4717.75</v>
       </c>
       <c r="G199" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>53015.715625000004</v>
       </c>
       <c r="H199" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>23588.75</v>
       </c>
       <c r="I199" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>76604.465625000012</v>
       </c>
       <c r="J199" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>24.356250000000003</v>
       </c>
       <c r="K199" s="4">
@@ -10045,10 +10633,13 @@
         <v>4717.75</v>
       </c>
       <c r="L199" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>114906.69843750002</v>
       </c>
-      <c r="M199" s="2"/>
+      <c r="M199" s="2">
+        <f t="shared" si="24"/>
+        <v>38302.232812500006</v>
+      </c>
     </row>
     <row r="200" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A200" s="1" t="s">
@@ -10070,19 +10661,19 @@
         <v>4766.5</v>
       </c>
       <c r="G200" s="2">
-        <f t="shared" si="16"/>
+        <f t="shared" si="19"/>
         <v>64276.252499999995</v>
       </c>
       <c r="H200" s="2">
-        <f t="shared" si="17"/>
+        <f t="shared" si="20"/>
         <v>23832.5</v>
       </c>
       <c r="I200" s="2">
-        <f t="shared" si="18"/>
+        <f t="shared" si="21"/>
         <v>88108.752500000002</v>
       </c>
       <c r="J200" s="2">
-        <f t="shared" si="19"/>
+        <f t="shared" si="22"/>
         <v>27.727499999999999</v>
       </c>
       <c r="K200" s="4">
@@ -10090,39 +10681,42 @@
         <v>4766.5</v>
       </c>
       <c r="L200" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="23"/>
         <v>132163.12875</v>
       </c>
-      <c r="M200" s="2"/>
+      <c r="M200" s="2">
+        <f t="shared" si="24"/>
+        <v>44054.376250000001</v>
+      </c>
     </row>
     <row r="201" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="G201" s="6">
-        <f t="shared" ref="G201:M201" si="21">SUM(G4:G200)</f>
+        <f t="shared" ref="G201:M201" si="25">SUM(G4:G200)</f>
         <v>70764990.998125017</v>
       </c>
       <c r="H201" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>4301328.75</v>
       </c>
       <c r="I201" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>75066319.748125017</v>
       </c>
       <c r="J201" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>25919.879999999972</v>
       </c>
       <c r="K201" s="7">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>860265.75</v>
       </c>
       <c r="L201" s="6">
-        <f t="shared" si="21"/>
+        <f t="shared" si="25"/>
         <v>112599479.62218751</v>
       </c>
       <c r="M201" s="6">
-        <f t="shared" si="21"/>
-        <v>0</v>
+        <f t="shared" si="25"/>
+        <v>37533159.874062501</v>
       </c>
     </row>
     <row r="202" spans="1:17" ht="15.75" customHeight="1" x14ac:dyDescent="0.25"/>
